--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\04_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC7572-C9D4-4507-85F7-1B7D69132787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="247">
   <si>
     <t>id</t>
   </si>
@@ -767,12 +768,24 @@
   </si>
   <si>
     <t>47</t>
+  </si>
+  <si>
+    <t>Đậu Hũ</t>
+  </si>
+  <si>
+    <t>./images/TRUONG_NGOC_HIEU_AN.jpg</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Trương Ngọc Hiếu An (Đậu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -802,9 +815,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,14 +1155,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1159,7 +1169,7 @@
     <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1201,11 +1211,11 @@
       <c r="F2" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1274,7 +1284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1594,6 +1604,29 @@
       </c>
       <c r="G19" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1605,145 +1638,145 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1832,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1855,7 +1888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1901,7 +1934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1924,7 +1957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1947,7 +1980,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1970,7 +2003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1993,7 +2026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2016,7 +2049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2036,7 +2069,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -2056,7 +2089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -2076,7 +2109,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -2096,7 +2129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -2116,7 +2149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -2159,7 +2192,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -2179,7 +2212,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -2199,7 +2232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2219,7 +2252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2239,7 +2272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -2259,7 +2292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -2279,7 +2312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2299,7 +2332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -2322,7 +2355,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -2342,7 +2375,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -2362,7 +2395,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -2385,7 +2418,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -2404,11 +2437,11 @@
       <c r="F31" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -2431,7 +2464,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -2451,7 +2484,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -2471,7 +2504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -2494,7 +2527,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -2514,7 +2547,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -2537,7 +2570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>205</v>
       </c>
@@ -2560,7 +2593,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -2583,7 +2616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -2606,7 +2639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -2629,7 +2662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -2652,7 +2685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -2675,7 +2708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -2698,7 +2731,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -2721,7 +2754,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -2744,7 +2777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -2764,7 +2797,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -2796,19 +2829,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +2864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2851,7 +2884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2874,7 +2907,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>233</v>
       </c>
@@ -2889,6 +2925,29 @@
       </c>
       <c r="F4" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2897,19 +2956,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2952,7 +3011,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2972,7 +3031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2992,7 +3051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3012,7 +3071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3041,16 +3100,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3093,7 +3152,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3119,16 +3178,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3151,7 +3210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3171,7 +3230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3197,16 +3256,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3249,7 +3308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3275,16 +3334,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3327,7 +3386,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3353,12 +3412,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC7572-C9D4-4507-85F7-1B7D69132787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -33,12 +32,12 @@
     <sheet name="2009" sheetId="18" r:id="rId18"/>
     <sheet name="2008" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -61,9 +60,6 @@
     <t>img</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Nguyễn Đức Nguyên Thông (Thúng)</t>
   </si>
   <si>
@@ -82,9 +78,6 @@
     <t>./images/NGUYEN_DUC_NGUYEN_THONG.jpg</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Hồ Thị Châu Linh</t>
   </si>
   <si>
@@ -103,9 +96,6 @@
     <t>./images/HO_THI_CHAU_LINH.jpg</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Nhật Anh</t>
   </si>
   <si>
@@ -121,9 +111,6 @@
     <t>./images/NGUYEN_THI_NHAT_ANH.jpg</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Đặng Hoàng Mỹ Chân</t>
   </si>
   <si>
@@ -136,9 +123,6 @@
     <t>./images/DANG_HOANG_MY_CHAN.jpg</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Trần Thị Xuân Diệu</t>
   </si>
   <si>
@@ -151,9 +135,6 @@
     <t>./images/TRAN_THI_XUAN_DIEU.jpg</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Trần Nguyễn Ánh Nhi</t>
   </si>
   <si>
@@ -169,9 +150,6 @@
     <t>./images/TRAN_NGUYEN_ANH_NHI.jpg</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Trần Nguyễn Ánh Nguyệt</t>
   </si>
   <si>
@@ -184,9 +162,6 @@
     <t>./images/TRAN_NGUYEN_ANH_NGUYET.jpg</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Nguyễn Phan Bảo Uyên</t>
   </si>
   <si>
@@ -202,9 +177,6 @@
     <t>./images/NGUYEN_PHAN_BAO_UYEN.jpg</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Phan Lê Xuân Hiếu (Híu)</t>
   </si>
   <si>
@@ -217,9 +189,6 @@
     <t>./images/PHAN_LE_XUAN_HIEU.jpg</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Nguyễn Anh Tài (Tài Cris)</t>
   </si>
   <si>
@@ -346,27 +315,18 @@
     <t>./images/BACH_THI_THU_THAO.jpg</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Huy</t>
   </si>
   <si>
     <t>./images/LE_VAN_HUY.jpg</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Nguyễn Đăng Huy</t>
   </si>
   <si>
     <t>Chú Huy</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Trần Xuân Trung</t>
   </si>
   <si>
@@ -376,18 +336,12 @@
     <t>Nhuận Đức</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Nguyễn Nhật Linh</t>
   </si>
   <si>
     <t>""</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Ngọc Ánh</t>
   </si>
   <si>
@@ -397,9 +351,6 @@
     <t>Én</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Mỹ Nhàn</t>
   </si>
   <si>
@@ -409,9 +360,6 @@
     <t>Nhuận Niệm</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Trần Thị Như Giao</t>
   </si>
   <si>
@@ -421,18 +369,12 @@
     <t>Giao Trần</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Huỳnh Nguyễn Tâm Nhã</t>
   </si>
   <si>
     <t>Nhã</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>Nguyễn Khánh Hà</t>
   </si>
   <si>
@@ -442,18 +384,12 @@
     <t>oyoui</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Phạm Hoàng Anh</t>
   </si>
   <si>
     <t>Hoàng Anh</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Duyên (Xô)</t>
   </si>
   <si>
@@ -463,9 +399,6 @@
     <t>Xô Nguyễn</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Phan Việt Thi</t>
   </si>
   <si>
@@ -475,18 +408,12 @@
     <t>Nu</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Nguyễn Hồ Thảo Nhi (Pho)</t>
   </si>
   <si>
     <t>Pho</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Nhật Trâm (Na)</t>
   </si>
   <si>
@@ -496,9 +423,6 @@
     <t>Nhat Tram</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Hoàng Thị Diệu Ái</t>
   </si>
   <si>
@@ -508,9 +432,6 @@
     <t>Hậu cần khó thì có chị Ái</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Dương Thị Thu Huyền</t>
   </si>
   <si>
@@ -523,9 +444,6 @@
     <t>./images/DUONG_THI_THU_HUYEN.jpg</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Nguyễn Luýt</t>
   </si>
   <si>
@@ -535,27 +453,18 @@
     <t>Nhất Tam</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>Trương Thị Phương Anh (Bơ Cena)</t>
   </si>
   <si>
     <t>Chị Bơ</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc Kỳ Duyên</t>
   </si>
   <si>
     <t>Kỳ Duyên</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>Định Hưng (Toni)</t>
   </si>
   <si>
@@ -568,9 +477,6 @@
     <t>Toni Định</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>Trương Thị Kim Chi (Xuxuchichi)</t>
   </si>
   <si>
@@ -586,9 +492,6 @@
     <t>./images/TRUONG_THI_KIM_CHI.jpg</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Lê Thị Nhật (Nước Lọc)</t>
   </si>
   <si>
@@ -598,9 +501,6 @@
     <t>Cô Lọc</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>Trương Minh Ý</t>
   </si>
   <si>
@@ -613,24 +513,12 @@
     <t>Ba Ky</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Trương Thị Kim Cương</t>
   </si>
   <si>
     <t>Cương</t>
   </si>
   <si>
-    <t>Mẹ Khoai, Đậu, Cá Heo</t>
-  </si>
-  <si>
-    <t>./images/TRUONG_THI_KIM_CUONG.jpg</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>Trần Thị Lành</t>
   </si>
   <si>
@@ -640,9 +528,6 @@
     <t>Lành Trần</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Lê Thị Bích Tiên</t>
   </si>
   <si>
@@ -655,9 +540,6 @@
     <t>./images/LE_THI_BICH_TIEN.jpg</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>Phan Thị Phương Anh (Sô)</t>
   </si>
   <si>
@@ -667,40 +549,13 @@
     <t>./images/PHAN_THI_PHUONG_ANH.jpg</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>./images/TRAN_NGUYEN_ANH_NHI.jpg_x000D_</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>./images/TRAN_NGUYEN_ANH_NGUYET.jpg_x000D_</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>./images/NGUYEN_PHAN_BAO_UYEN.jpg_x000D_</t>
-  </si>
-  <si>
-    <t>46</t>
   </si>
   <si>
     <t>&lt;s&gt;yesterday&lt;/s&gt; NOW &lt;del&gt;tomorrow&lt;/del&gt;</t>
@@ -767,9 +622,6 @@
     <t>./images/LE_THI_MINH_NGOC.jpg</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>Đậu Hũ</t>
   </si>
   <si>
@@ -780,12 +632,51 @@
   </si>
   <si>
     <t>Trương Ngọc Hiếu An (Đậu)</t>
+  </si>
+  <si>
+    <t>./images/TRUONG_MINH_Y_TRUONG_THI_KIM_CUONG.jpg</t>
+  </si>
+  <si>
+    <t>Mẹ Khoai, Đậu, Dâu Tây</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Hướng lung tung</t>
+  </si>
+  <si>
+    <t>Lê Huyền Trang</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Trang (Suu)</t>
+  </si>
+  <si>
+    <t>Ain't no fun in easy!</t>
+  </si>
+  <si>
+    <t>Võ Hồng Đức</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Milo</t>
+  </si>
+  <si>
+    <t>Ngô Thị Bảo Trân</t>
+  </si>
+  <si>
+    <t>Trân</t>
+  </si>
+  <si>
+    <t>Nhật Kim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1155,12 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1169,7 +1062,7 @@
     <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,441 +1085,487 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1638,136 +1577,460 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -1776,7 +2039,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,1049 +2062,1178 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E53" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G54" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B27:G27 A14:F18 A12 G12 A13 B32:G32 A20:F21 A19:E19 B37:G42 B36:C36 E36:F36 B30:F30 A9:G11 A8:E8 G8 B35:G35 B34:F34 B33:F33 B22:F26 A3:G7 A2:F2 B28:F29 B43:G46 C12:E12" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B27:G27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:F33 B22:F26 B4:G7 B2:F2 B28:F29 B43:G46 C12:E12 B3:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="B5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2864,90 +3256,136 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2956,19 +3394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2991,107 +3429,173 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3100,16 +3604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3132,44 +3636,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3178,16 +3748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3210,44 +3780,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3256,16 +3892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3288,44 +3924,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3334,16 +4036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3366,44 +4068,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3412,13 +4180,105 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1387D0-0CAD-421B-B016-917EA492EE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -671,12 +672,108 @@
   </si>
   <si>
     <t>Nhật Kim</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_THUY_TRANG.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thị Thuỳ Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vui vẻ, thích cười </t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Chưa có nhóm</t>
+  </si>
+  <si>
+    <t>Hoàng Hữu Tuấn Vũ (TVũ 4S)</t>
+  </si>
+  <si>
+    <t>Sống chỉ đơn giản - lấy nụ cười làm căn bản</t>
+  </si>
+  <si>
+    <t>./images/HOANG_HUU_TUAN_VU.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Ngân</t>
+  </si>
+  <si>
+    <t>Ngân</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_KIM_NGAN.jpg</t>
+  </si>
+  <si>
+    <t>Nguyện người thường An 🍀</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_LUYT.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Luýt (Nhất Tam)</t>
+  </si>
+  <si>
+    <t>Châu</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Minh Châu (Minh Chau Tran)</t>
+  </si>
+  <si>
+    <t>Nhuận Bảoo ✌️</t>
+  </si>
+  <si>
+    <t>./images/TRAN_NGOC_MINH_CHAU.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Thị Thu Thanh </t>
+  </si>
+  <si>
+    <t>Khi tâm an, đời sẽ nhẹ</t>
+  </si>
+  <si>
+    <t>./images/DANG_THI_THU_THANH.jpg</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Phương My (Mắm)</t>
+  </si>
+  <si>
+    <t>Mập nhất gia đình Chánh Tâm</t>
+  </si>
+  <si>
+    <t>./images/LE_NGUYEN_PHUONG_MY.jpg</t>
+  </si>
+  <si>
+    <t>Trần Văn Quang</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Trầm tính</t>
+  </si>
+  <si>
+    <t>./images/TRAN_VAN_QUANG.jpg</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Hoài An</t>
+  </si>
+  <si>
+    <t>Mình là một người low pin nhưng high mood, nhạc là chân ái, deadline là động lực, chưa giỏi lắm nhưng vui là chính</t>
+  </si>
+  <si>
+    <t>./images/HOANG_NGOC_HOAI_AN.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -706,8 +803,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,14 +1146,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1062,7 +1160,7 @@
     <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,7 +1206,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1131,7 +1229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1154,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1177,7 +1275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1200,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1223,7 +1321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1246,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1269,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1292,7 +1390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1315,7 +1413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1338,7 +1436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1361,7 +1459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1384,7 +1482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1407,7 +1505,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1430,7 +1528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1453,7 +1551,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1476,7 +1574,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1499,7 +1597,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1522,7 +1620,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1545,7 +1643,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1577,16 +1675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1629,7 +1727,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1652,7 +1750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1681,16 +1779,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1719,16 +1817,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,16 +1855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1795,16 +1893,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1833,16 +1931,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1871,16 +1969,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1909,16 +2007,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1947,16 +2045,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1985,16 +2083,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2023,23 +2121,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2082,7 +2180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2105,7 +2203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2128,7 +2226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2151,7 +2249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2174,7 +2272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2197,7 +2295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2220,7 +2318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2243,7 +2341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2266,7 +2364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2289,7 +2387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2312,7 +2410,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2332,7 +2430,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2352,7 +2450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2372,7 +2470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2392,7 +2490,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2412,7 +2510,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2432,7 +2530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2455,7 +2553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2475,7 +2573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2495,7 +2593,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2515,7 +2613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2535,7 +2633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2555,7 +2653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2575,7 +2673,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2595,7 +2693,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2618,7 +2716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2638,7 +2736,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2658,7 +2756,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2681,7 +2779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2704,7 +2802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2727,7 +2825,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2747,7 +2845,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2770,7 +2868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2793,7 +2891,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2813,7 +2911,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2836,7 +2934,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2859,7 +2957,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2882,7 +2980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2905,7 +3003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2928,7 +3026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2951,7 +3049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2974,7 +3072,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2997,7 +3095,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3020,7 +3118,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3043,7 +3141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3063,7 +3161,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3086,7 +3184,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3109,7 +3207,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3129,7 +3227,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3149,7 +3247,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3169,7 +3267,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3189,7 +3287,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3210,30 +3308,148 @@
       </c>
       <c r="G54" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>230</v>
+      </c>
+      <c r="G56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s">
+        <v>238</v>
+      </c>
+      <c r="G58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B27:G27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:F33 B22:F26 B4:G7 B2:F2 B28:F29 B43:G46 C12:E12 B3:G3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B27:G27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:F33 B22:F26 B4:G7 B2:F2 B28:F29 B43:G46 C12:E12 B3:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3276,7 +3492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3299,7 +3515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3319,7 +3535,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3342,7 +3558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3365,7 +3581,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3386,6 +3602,52 @@
       </c>
       <c r="G7" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3394,19 +3656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3449,7 +3711,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3469,7 +3731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3489,7 +3751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3509,7 +3771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3532,7 +3794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3555,7 +3817,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3578,7 +3840,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3604,16 +3866,360 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +4242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3656,7 +4262,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3676,7 +4282,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3699,7 +4305,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3722,295 +4328,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4036,16 +4354,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4088,7 +4406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4108,7 +4426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4131,7 +4449,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4154,7 +4472,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4180,16 +4498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4235,7 +4553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4258,7 +4576,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1387D0-0CAD-421B-B016-917EA492EE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -439,19 +438,10 @@
     <t>Huyền</t>
   </si>
   <si>
-    <t>Nhuận Mỹ</t>
-  </si>
-  <si>
     <t>./images/DUONG_THI_THU_HUYEN.jpg</t>
   </si>
   <si>
-    <t>Nguyễn Luýt</t>
-  </si>
-  <si>
     <t>Luýt</t>
-  </si>
-  <si>
-    <t>Nhất Tam</t>
   </si>
   <si>
     <t>Trương Thị Phương Anh (Bơ Cena)</t>
@@ -746,9 +736,6 @@
     <t>Mập nhất gia đình Chánh Tâm</t>
   </si>
   <si>
-    <t>./images/LE_NGUYEN_PHUONG_MY.jpg</t>
-  </si>
-  <si>
     <t>Trần Văn Quang</t>
   </si>
   <si>
@@ -768,16 +755,94 @@
   </si>
   <si>
     <t>./images/HOANG_NGOC_HOAI_AN.jpg</t>
+  </si>
+  <si>
+    <t>./images/LE_NGUYEN_PHUONG_MY.png</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;i&gt;𝘽𝙚 𝙮𝙤𝙪𝙧𝙨𝙚𝙡𝙛, 𝙙𝙤𝙣'𝙩 𝙗𝙚 𝙖𝙣𝙮𝙤𝙣𝙚 𝙚𝙡𝙨𝙚&lt;/i&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tống Văn Hùng</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Hùng hóm hỉnh</t>
+  </si>
+  <si>
+    <t>./images/TONG_VAN_HUNG.jpg</t>
+  </si>
+  <si>
+    <t>Lê Đức Duy</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Duyy</t>
+  </si>
+  <si>
+    <t>./images/LE_DUC_DUY.jpg</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>Hương</t>
+  </si>
+  <si>
+    <t>Hương Queen</t>
+  </si>
+  <si>
+    <t>./images/TRAN_THI_THU_HUONG.jpg</t>
+  </si>
+  <si>
+    <t>Thân Trọng Quang Dũng</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>hoho</t>
+  </si>
+  <si>
+    <t>./images/THAN_TRONG_QUANG_DUNG.jpg</t>
+  </si>
+  <si>
+    <t>hihi</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai Thùy Trâm</t>
+  </si>
+  <si>
+    <t>Yêu múa ca</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_MAI_THUY_TRAM.jpg</t>
+  </si>
+  <si>
+    <t>trong veo</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_HO_THAO_NHI.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -803,11 +868,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,12 +1212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1160,7 +1228,7 @@
     <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1194,42 +1262,42 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1252,12 +1320,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -1269,13 +1337,13 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1298,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1321,7 +1389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1344,7 +1412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1367,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1390,7 +1458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1413,7 +1481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1436,7 +1504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1459,7 +1527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1482,7 +1550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1499,13 +1567,13 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1516,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -1528,30 +1596,30 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1574,12 +1642,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -1591,67 +1659,67 @@
         <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
         <v>154</v>
       </c>
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>157</v>
-      </c>
       <c r="G20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -1660,10 +1728,237 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1675,16 +1970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1707,15 +2002,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -1724,53 +2019,73 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
       <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1779,16 +2094,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1809,6 +2124,26 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1817,16 +2152,344 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1854,245 +2517,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,14 +2556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -2137,7 +2572,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2180,7 +2615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2203,7 +2638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2226,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2249,7 +2684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2272,7 +2707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2295,7 +2730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2312,13 +2747,13 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2341,7 +2776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2364,7 +2799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2387,12 +2822,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
@@ -2404,33 +2839,33 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2450,7 +2885,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2470,7 +2905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2490,7 +2925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2510,7 +2945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2530,7 +2965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2547,13 +2982,13 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2573,7 +3008,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2593,7 +3028,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2613,7 +3048,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2633,7 +3068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2653,7 +3088,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2673,7 +3108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2693,7 +3128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2709,22 +3144,22 @@
       <c r="E27" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
         <v>133</v>
       </c>
-      <c r="G27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -2733,15 +3168,18 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2753,15 +3191,15 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>118</v>
@@ -2773,13 +3211,13 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2799,147 +3237,147 @@
         <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" t="s">
         <v>154</v>
       </c>
-      <c r="C34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
       <c r="G34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
         <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -2951,13 +3389,13 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2980,7 +3418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3003,7 +3441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3026,7 +3464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3049,7 +3487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3069,10 +3507,10 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3092,10 +3530,10 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3115,10 +3553,10 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3135,38 +3573,38 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="G46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>66</v>
@@ -3178,21 +3616,21 @@
         <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
@@ -3201,21 +3639,21 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -3224,18 +3662,18 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
         <v>52</v>
@@ -3244,38 +3682,38 @@
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -3284,18 +3722,18 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
         <v>197</v>
-      </c>
-      <c r="C54" t="s">
-        <v>196</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -3304,73 +3742,73 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
         <v>229</v>
       </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
       <c r="D56" t="s">
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
         <v>233</v>
       </c>
-      <c r="C57" t="s">
-        <v>232</v>
-      </c>
       <c r="D57" t="s">
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
         <v>234</v>
@@ -3379,7 +3817,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3387,59 +3825,243 @@
         <v>236</v>
       </c>
       <c r="C58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>238</v>
       </c>
-      <c r="G58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G59" t="s">
-        <v>242</v>
+      <c r="F62" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>247</v>
+      </c>
+      <c r="G63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
+      </c>
+      <c r="G66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>261</v>
+      </c>
+      <c r="G67" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B27:G27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:F33 B22:F26 B4:G7 B2:F2 B28:F29 B43:G46 C12:E12 B3:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B27:E27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:F33 B22:F26 B4:G7 B2:F2 B29:F29 B43:G45 C12:E12 B3:F3 G27 C46:E46 G46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -3449,7 +4071,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +4094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3492,7 +4114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3515,15 +4137,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -3532,64 +4154,64 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" t="s">
-        <v>157</v>
-      </c>
       <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -3598,21 +4220,21 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3621,21 +4243,21 @@
         <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -3644,10 +4266,168 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3656,19 +4436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3691,15 +4471,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -3708,18 +4488,18 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -3728,18 +4508,18 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -3748,10 +4528,10 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3771,7 +4551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3782,7 +4562,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -3794,70 +4574,205 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
       <c r="G7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3866,12 +4781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -3881,7 +4798,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3904,15 +4821,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -3921,18 +4838,18 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -3941,96 +4858,208 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
       <c r="G4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>216</v>
       </c>
-      <c r="C7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4039,12 +5068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -4055,7 +5086,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4078,15 +5109,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -4095,18 +5126,18 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -4115,84 +5146,84 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
       <c r="G4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -4201,7 +5232,53 @@
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4210,16 +5287,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4242,15 +5319,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -4259,18 +5336,18 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -4279,73 +5356,113 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
       <c r="G4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4354,16 +5471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4386,15 +5503,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -4403,18 +5520,18 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -4423,73 +5540,113 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
       <c r="G4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4498,16 +5655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4530,70 +5687,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Hiếu</t>
-  </si>
-  <si>
-    <t>Nhuận Hòa</t>
   </si>
   <si>
     <t>./images/PHAN_LE_XUAN_HIEU.jpg</t>
@@ -1215,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1256,22 +1253,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -1279,22 +1276,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>144</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -1325,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1337,10 +1334,10 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -1371,22 +1368,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -1544,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -1555,10 +1552,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
         <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1567,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -1578,22 +1575,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
@@ -1601,22 +1598,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
@@ -1624,22 +1621,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
       <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
@@ -1647,22 +1644,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>189</v>
-      </c>
-      <c r="G19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
@@ -1670,22 +1667,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>153</v>
       </c>
-      <c r="F20" t="s">
-        <v>154</v>
-      </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
@@ -1693,22 +1690,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
-        <v>156</v>
-      </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -1716,22 +1713,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
         <v>191</v>
-      </c>
-      <c r="G22" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
@@ -1739,19 +1736,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
         <v>216</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
         <v>217</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
@@ -1759,22 +1756,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" t="s">
         <v>213</v>
       </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>214</v>
-      </c>
-      <c r="G24" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
@@ -1782,22 +1779,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
@@ -1805,22 +1802,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="s">
         <v>241</v>
       </c>
-      <c r="C26" t="s">
-        <v>242</v>
-      </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
         <v>243</v>
-      </c>
-      <c r="G26" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
@@ -1828,22 +1825,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
         <v>245</v>
       </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
         <v>247</v>
-      </c>
-      <c r="G27" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
@@ -1851,10 +1848,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" t="s">
         <v>249</v>
-      </c>
-      <c r="C28" t="s">
-        <v>250</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1863,10 +1860,10 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
         <v>251</v>
-      </c>
-      <c r="G28" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
@@ -1874,22 +1871,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" t="s">
-        <v>254</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
         <v>255</v>
-      </c>
-      <c r="G29" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
@@ -1897,22 +1894,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>258</v>
       </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>259</v>
-      </c>
-      <c r="G30" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
@@ -1920,7 +1917,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1932,10 +1929,10 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
         <v>261</v>
-      </c>
-      <c r="G31" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -1943,22 +1940,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>63</v>
-      </c>
-      <c r="G32" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2007,19 +2004,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>148</v>
       </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -2027,22 +2024,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>153</v>
       </c>
-      <c r="F3" t="s">
-        <v>154</v>
-      </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -2050,42 +2047,42 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
         <v>241</v>
       </c>
-      <c r="C5" t="s">
-        <v>242</v>
-      </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2128,22 +2125,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2186,22 +2183,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2244,22 +2241,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2302,22 +2299,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2360,22 +2357,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2418,22 +2415,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2600,19 +2597,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -2620,22 +2617,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -2666,22 +2663,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -2689,22 +2686,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
         <v>73</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -2712,22 +2709,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -2735,22 +2732,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -2758,22 +2755,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -2804,10 +2801,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -2816,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
         <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -2827,10 +2824,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -2839,10 +2836,10 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -2850,19 +2847,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
         <v>139</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -2870,19 +2867,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -2890,7 +2887,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -2902,7 +2899,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -2910,10 +2907,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -2922,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
@@ -2930,10 +2927,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -2942,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
@@ -2950,10 +2947,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -2962,7 +2959,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
@@ -2970,10 +2967,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
         <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -2982,10 +2979,10 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
@@ -2993,10 +2990,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
         <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -3005,7 +3002,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
@@ -3013,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -3025,7 +3022,7 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -3033,10 +3030,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
         <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -3045,7 +3042,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
@@ -3053,10 +3050,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -3065,7 +3062,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
@@ -3073,7 +3070,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -3085,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
@@ -3093,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -3105,7 +3102,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
@@ -3113,19 +3110,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
@@ -3133,22 +3130,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
         <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
@@ -3156,22 +3153,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
         <v>219</v>
-      </c>
-      <c r="G28" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
@@ -3179,7 +3176,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -3191,7 +3188,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
@@ -3199,10 +3196,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -3211,10 +3208,10 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
@@ -3222,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -3234,10 +3231,10 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -3245,22 +3242,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
         <v>143</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>144</v>
-      </c>
-      <c r="D32" t="s">
-        <v>145</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
       </c>
       <c r="F32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
         <v>146</v>
-      </c>
-      <c r="G32" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
@@ -3268,19 +3265,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
@@ -3288,22 +3285,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
         <v>152</v>
       </c>
-      <c r="D34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>153</v>
       </c>
-      <c r="F34" t="s">
-        <v>154</v>
-      </c>
       <c r="G34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
@@ -3311,22 +3308,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
         <v>155</v>
       </c>
-      <c r="C35" t="s">
-        <v>156</v>
-      </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
@@ -3334,19 +3331,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
         <v>157</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>158</v>
-      </c>
-      <c r="D36" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
@@ -3354,22 +3351,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
         <v>160</v>
       </c>
-      <c r="C37" t="s">
-        <v>161</v>
-      </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" t="s">
         <v>162</v>
-      </c>
-      <c r="G37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
@@ -3377,7 +3374,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -3389,10 +3386,10 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
         <v>165</v>
-      </c>
-      <c r="G38" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.5">
@@ -3406,7 +3403,7 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -3423,22 +3420,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
       <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
         <v>52</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>53</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.5">
@@ -3452,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -3475,7 +3472,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -3498,7 +3495,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
@@ -3507,7 +3504,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.5">
@@ -3521,7 +3518,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -3530,7 +3527,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
@@ -3544,7 +3541,7 @@
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -3553,7 +3550,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.5">
@@ -3567,16 +3564,16 @@
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.5">
@@ -3584,19 +3581,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
         <v>178</v>
-      </c>
-      <c r="D47" t="s">
-        <v>179</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.5">
@@ -3604,22 +3601,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
         <v>188</v>
       </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>189</v>
-      </c>
-      <c r="G48" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
@@ -3627,22 +3624,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" t="s">
         <v>191</v>
-      </c>
-      <c r="G49" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
@@ -3650,19 +3647,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
@@ -3670,19 +3667,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.5">
@@ -3690,19 +3687,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
         <v>202</v>
       </c>
-      <c r="C52" t="s">
-        <v>203</v>
-      </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.5">
@@ -3710,10 +3707,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
         <v>205</v>
-      </c>
-      <c r="C53" t="s">
-        <v>206</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -3722,7 +3719,7 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">
@@ -3730,22 +3727,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.5">
@@ -3753,22 +3750,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" t="s">
         <v>227</v>
-      </c>
-      <c r="G55" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.5">
@@ -3776,22 +3773,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.5">
@@ -3799,22 +3796,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" t="s">
         <v>232</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" t="s">
         <v>233</v>
       </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>234</v>
-      </c>
-      <c r="G57" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
@@ -3822,22 +3819,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" t="s">
         <v>237</v>
-      </c>
-      <c r="G58" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.5">
@@ -3845,22 +3842,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
         <v>34</v>
       </c>
       <c r="F59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" t="s">
         <v>224</v>
-      </c>
-      <c r="G59" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.5">
@@ -3868,22 +3865,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" t="s">
         <v>213</v>
       </c>
-      <c r="C60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>214</v>
-      </c>
-      <c r="G60" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.5">
@@ -3891,19 +3888,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="s">
         <v>216</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" t="s">
         <v>217</v>
-      </c>
-      <c r="D61" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.5">
@@ -3911,22 +3908,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
         <v>241</v>
       </c>
-      <c r="C62" t="s">
-        <v>242</v>
-      </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>242</v>
+      </c>
+      <c r="G62" t="s">
         <v>243</v>
-      </c>
-      <c r="G62" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.5">
@@ -3934,22 +3931,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" t="s">
         <v>245</v>
       </c>
-      <c r="C63" t="s">
-        <v>246</v>
-      </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" t="s">
         <v>247</v>
-      </c>
-      <c r="G63" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.5">
@@ -3957,22 +3954,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
         <v>249</v>
       </c>
-      <c r="C64" t="s">
-        <v>250</v>
-      </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" t="s">
         <v>251</v>
-      </c>
-      <c r="G64" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.5">
@@ -3980,22 +3977,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" t="s">
         <v>253</v>
-      </c>
-      <c r="C65" t="s">
-        <v>254</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
+        <v>254</v>
+      </c>
+      <c r="G65" t="s">
         <v>255</v>
-      </c>
-      <c r="G65" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.5">
@@ -4003,22 +4000,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
         <v>258</v>
       </c>
-      <c r="C66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>259</v>
-      </c>
-      <c r="G66" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.5">
@@ -4026,7 +4023,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
@@ -4038,10 +4035,10 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
+        <v>260</v>
+      </c>
+      <c r="G67" t="s">
         <v>261</v>
-      </c>
-      <c r="G67" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4099,19 +4096,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -4119,22 +4116,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -4142,10 +4139,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4154,7 +4151,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -4162,22 +4159,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
         <v>152</v>
       </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>153</v>
       </c>
-      <c r="F5" t="s">
-        <v>154</v>
-      </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -4185,22 +4182,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -4208,22 +4205,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
         <v>191</v>
-      </c>
-      <c r="G7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -4231,22 +4228,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
         <v>219</v>
-      </c>
-      <c r="G8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -4254,22 +4251,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" t="s">
         <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -4277,19 +4274,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" t="s">
         <v>216</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
         <v>217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -4297,22 +4294,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -4320,22 +4317,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
         <v>241</v>
       </c>
-      <c r="C12" t="s">
-        <v>242</v>
-      </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" t="s">
         <v>243</v>
-      </c>
-      <c r="G12" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -4343,22 +4340,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
         <v>245</v>
       </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
         <v>247</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -4366,22 +4363,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
         <v>253</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
         <v>254</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>255</v>
-      </c>
-      <c r="G14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -4389,22 +4386,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>259</v>
-      </c>
-      <c r="G15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -4412,22 +4409,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" t="s">
         <v>261</v>
-      </c>
-      <c r="G16" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4476,19 +4473,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -4496,19 +4493,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -4516,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4528,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -4536,7 +4533,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -4548,7 +4545,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -4556,22 +4553,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -4579,22 +4576,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
         <v>151</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>153</v>
       </c>
-      <c r="F7" t="s">
-        <v>154</v>
-      </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -4602,22 +4599,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
-        <v>156</v>
-      </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -4625,19 +4622,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -4645,19 +4642,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" t="s">
         <v>216</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
         <v>217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -4665,22 +4662,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -4688,22 +4685,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
         <v>241</v>
       </c>
-      <c r="C12" t="s">
-        <v>242</v>
-      </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" t="s">
         <v>243</v>
-      </c>
-      <c r="G12" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -4711,22 +4708,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
         <v>245</v>
       </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
         <v>247</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -4734,22 +4731,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
         <v>253</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
         <v>254</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>255</v>
-      </c>
-      <c r="G14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -4757,22 +4754,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" t="s">
         <v>261</v>
-      </c>
-      <c r="G15" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4826,19 +4823,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -4846,19 +4843,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -4866,22 +4863,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>153</v>
       </c>
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -4889,22 +4886,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -4912,19 +4909,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -4932,22 +4929,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" t="s">
         <v>213</v>
       </c>
-      <c r="C7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>214</v>
-      </c>
-      <c r="G7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -4955,19 +4952,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
         <v>216</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
         <v>217</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -4975,22 +4972,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -4998,22 +4995,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
         <v>241</v>
       </c>
-      <c r="C10" t="s">
-        <v>242</v>
-      </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" t="s">
         <v>243</v>
-      </c>
-      <c r="G10" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -5021,22 +5018,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
         <v>245</v>
       </c>
-      <c r="C11" t="s">
-        <v>246</v>
-      </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" t="s">
         <v>247</v>
-      </c>
-      <c r="G11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -5044,22 +5041,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" t="s">
         <v>261</v>
-      </c>
-      <c r="G12" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5114,19 +5111,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5134,19 +5131,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5154,22 +5151,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>153</v>
       </c>
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -5177,22 +5174,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -5200,19 +5197,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -5220,19 +5217,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
         <v>216</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>217</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -5240,22 +5237,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
         <v>241</v>
       </c>
-      <c r="C8" t="s">
-        <v>242</v>
-      </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" t="s">
         <v>243</v>
-      </c>
-      <c r="G8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -5263,22 +5260,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
         <v>245</v>
       </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
         <v>247</v>
-      </c>
-      <c r="G9" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5324,19 +5321,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5344,19 +5341,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5364,22 +5361,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>153</v>
       </c>
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -5387,22 +5384,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -5410,59 +5407,59 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
-        <v>242</v>
-      </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
         <v>243</v>
-      </c>
-      <c r="G7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
         <v>245</v>
       </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
         <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5508,19 +5505,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5528,19 +5525,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5548,22 +5545,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>153</v>
       </c>
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -5571,22 +5568,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -5594,59 +5591,59 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
-        <v>242</v>
-      </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
         <v>243</v>
-      </c>
-      <c r="G7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
         <v>245</v>
       </c>
-      <c r="C8" t="s">
-        <v>246</v>
-      </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
         <v>247</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5692,22 +5689,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>153</v>
       </c>
-      <c r="F2" t="s">
-        <v>154</v>
-      </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5715,22 +5712,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" t="s">
-        <v>156</v>
-      </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5738,59 +5735,59 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
         <v>241</v>
       </c>
-      <c r="C5" t="s">
-        <v>242</v>
-      </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
         <v>245</v>
       </c>
-      <c r="C6" t="s">
-        <v>246</v>
-      </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" t="s">
         <v>247</v>
-      </c>
-      <c r="G6" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -486,19 +486,10 @@
     <t>Nhật</t>
   </si>
   <si>
-    <t>Cô Lọc</t>
-  </si>
-  <si>
-    <t>Trương Minh Ý</t>
-  </si>
-  <si>
     <t>Ý</t>
   </si>
   <si>
     <t>Hít Thở Mỉm Cười, Chánh Tâm Nhỏ</t>
-  </si>
-  <si>
-    <t>Ba Ky</t>
   </si>
   <si>
     <t>Trương Thị Kim Cương</t>
@@ -643,15 +634,9 @@
     <t>Ain't no fun in easy!</t>
   </si>
   <si>
-    <t>Võ Hồng Đức</t>
-  </si>
-  <si>
     <t>Đức</t>
   </si>
   <si>
-    <t>Milo</t>
-  </si>
-  <si>
     <t>Ngô Thị Bảo Trân</t>
   </si>
   <si>
@@ -824,6 +809,120 @@
   </si>
   <si>
     <t>./images/NGUYEN_HO_THAO_NHI.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thanh Thảo (naaaa)</t>
+  </si>
+  <si>
+    <t>na xinh vứi đôi má hồnggg</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_NGOC_THANH_THAO.jpg</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Giản Đơn</t>
+  </si>
+  <si>
+    <t>Đơn</t>
+  </si>
+  <si>
+    <t>cô bé phức tạp</t>
+  </si>
+  <si>
+    <t>./images/LE_NGOC_GIAN_DON.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thị Diệu Trinh</t>
+  </si>
+  <si>
+    <t>Trinh</t>
+  </si>
+  <si>
+    <t>Lặng lẽ học tập, rèn luyện thân tâm</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_DIEU_TRINH.jpg</t>
+  </si>
+  <si>
+    <t>Biết ơn - Tĩnh lặng</t>
+  </si>
+  <si>
+    <t>./images/LE_THI_NHAT.jpg</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Xuân Nghi</t>
+  </si>
+  <si>
+    <t>Nghi</t>
+  </si>
+  <si>
+    <t>ngại ngùng</t>
+  </si>
+  <si>
+    <t>./images/TRAN_NGUYEN_XUAN_NGHI.jpg</t>
+  </si>
+  <si>
+    <t>Mặt hơi nhiều râu</t>
+  </si>
+  <si>
+    <t>./images/TRUONG_MINH_Y.jpg</t>
+  </si>
+  <si>
+    <t>Trương Minh Ý (Ý Râu)</t>
+  </si>
+  <si>
+    <t>Trần Nhật Lai</t>
+  </si>
+  <si>
+    <t>Lai</t>
+  </si>
+  <si>
+    <t>Muốn được iu thưn🫶</t>
+  </si>
+  <si>
+    <t>./images/TRAN_NHAT_LAI.jpg</t>
+  </si>
+  <si>
+    <t>Võ Hồng Đức (Mai Cồ Phước Duyên)</t>
+  </si>
+  <si>
+    <t>Hậu cần, Diễn kịch và Nước mía</t>
+  </si>
+  <si>
+    <t>./images/VO_HONG_DUC.jpg</t>
+  </si>
+  <si>
+    <t>Trần Thị Hà (Trần Hà)</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;true/false/not.given&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>./images/TRAN_HA.jpg</t>
+  </si>
+  <si>
+    <t>Trưởng ban văn nghệ, thỉnh sư</t>
+  </si>
+  <si>
+    <t>./images/TRAN_THI_HA.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Quỳnh Như</t>
+  </si>
+  <si>
+    <t>Như</t>
+  </si>
+  <si>
+    <t>Quỳnh Như hihi</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_HOANG_QUYNH_NHU.jpg</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;𝘽𝙚 𝙮𝙤𝙪𝙧𝙨𝙚𝙡𝙛, 𝙙𝙤𝙣'𝙩 𝙗𝙚 𝙖𝙣𝙮𝙤𝙣𝙚 𝙚𝙡𝙨𝙚&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1265,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -1288,7 +1387,7 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
@@ -1322,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -1334,7 +1433,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
         <v>92</v>
@@ -1541,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -1564,10 +1663,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -1610,10 +1709,10 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
@@ -1644,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -1656,10 +1755,10 @@
         <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
@@ -1667,22 +1766,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
         <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
@@ -1690,10 +1789,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
         <v>144</v>
@@ -1702,10 +1801,10 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
@@ -1713,10 +1812,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
@@ -1725,10 +1824,10 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
@@ -1736,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -1748,7 +1847,7 @@
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
@@ -1756,22 +1855,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
@@ -1791,7 +1890,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
         <v>132</v>
@@ -1802,10 +1901,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
@@ -1814,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
@@ -1825,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -1837,10 +1936,10 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
@@ -1848,10 +1947,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1860,10 +1959,10 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
@@ -1871,10 +1970,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1883,10 +1982,10 @@
         <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
@@ -1894,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
@@ -1906,10 +2005,10 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
@@ -1929,10 +2028,10 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -1956,6 +2055,213 @@
       </c>
       <c r="G32" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1968,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2013,10 +2319,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -2024,22 +2333,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -2047,42 +2356,91 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" t="s">
         <v>241</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
         <v>242</v>
       </c>
-      <c r="G5" t="s">
-        <v>243</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2092,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2125,22 +2483,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2183,22 +2581,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2208,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2241,22 +2679,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2266,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2299,22 +2757,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2324,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2357,22 +2835,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2883,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2415,22 +2913,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2554,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2744,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
         <v>82</v>
@@ -2824,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -2836,7 +3334,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
         <v>92</v>
@@ -2979,10 +3477,10 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
@@ -3142,7 +3640,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
         <v>132</v>
@@ -3153,7 +3651,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
         <v>133</v>
@@ -3165,10 +3663,10 @@
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
@@ -3211,7 +3709,7 @@
         <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
@@ -3234,7 +3732,7 @@
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
@@ -3277,7 +3775,10 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
@@ -3285,22 +3786,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
         <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
@@ -3308,10 +3809,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
         <v>144</v>
@@ -3320,10 +3821,10 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
@@ -3331,19 +3832,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
         <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
@@ -3351,10 +3852,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
         <v>144</v>
@@ -3363,10 +3864,10 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
@@ -3374,7 +3875,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -3386,10 +3887,10 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.5">
@@ -3504,7 +4005,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.5">
@@ -3527,7 +4028,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
@@ -3550,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.5">
@@ -3570,7 +4071,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -3581,19 +4082,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.5">
@@ -3601,7 +4102,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -3613,10 +4114,10 @@
         <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
@@ -3624,10 +4125,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -3636,10 +4137,10 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
@@ -3647,10 +4148,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
         <v>51</v>
@@ -3659,7 +4160,7 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
@@ -3667,10 +4168,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
         <v>51</v>
@@ -3679,7 +4180,7 @@
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.5">
@@ -3687,10 +4188,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
         <v>144</v>
@@ -3699,7 +4200,10 @@
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>203</v>
+        <v>282</v>
+      </c>
+      <c r="G52" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.5">
@@ -3707,10 +4211,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -3719,7 +4223,7 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">
@@ -3727,10 +4231,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
         <v>51</v>
@@ -3739,10 +4243,10 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.5">
@@ -3750,33 +4254,33 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
         <v>51</v>
@@ -3784,11 +4288,11 @@
       <c r="E56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" t="s">
-        <v>230</v>
+      <c r="F56" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.5">
@@ -3796,45 +4300,45 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.5">
@@ -3842,22 +4346,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.5">
@@ -3865,22 +4366,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
         <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.5">
@@ -3888,19 +4389,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>241</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.5">
@@ -3908,22 +4412,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.5">
@@ -3931,22 +4435,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.5">
@@ -3954,22 +4458,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G64" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.5">
@@ -3977,22 +4481,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.5">
@@ -4003,13 +4507,13 @@
         <v>257</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
         <v>258</v>
@@ -4023,39 +4527,200 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" t="s">
         <v>16</v>
       </c>
-      <c r="F67" t="s">
-        <v>260</v>
-      </c>
-      <c r="G67" t="s">
-        <v>261</v>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>279</v>
+      </c>
+      <c r="G70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B27:E27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:F33 B22:F26 B4:G7 B2:F2 B29:F29 B43:G45 C12:E12 B3:F3 G27 C46:E46 G46" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 B27:E27 B14:F18 G12 B32:G32 B20:F21 B19:E19 B37:G42 B36:C36 E36:F36 B30:F30 B9:G11 B8:E8 G8 B33:E33 B22:F26 B4:G7 B2:F2 B29:F29 B43:G45 C12:E12 B3:F3 G27 C46:E46 G46" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4139,10 +4804,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4151,7 +4816,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -4159,22 +4824,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -4182,10 +4847,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
         <v>144</v>
@@ -4194,10 +4859,10 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -4205,10 +4870,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -4217,10 +4882,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -4228,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -4240,10 +4905,10 @@
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -4251,10 +4916,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -4263,10 +4928,10 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -4274,10 +4939,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -4286,7 +4951,7 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -4306,7 +4971,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
         <v>132</v>
@@ -4317,10 +4982,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -4329,10 +4994,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -4340,10 +5005,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -4352,10 +5017,10 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -4363,10 +5028,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -4375,10 +5040,10 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -4386,7 +5051,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
         <v>125</v>
@@ -4398,10 +5063,10 @@
         <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -4421,10 +5086,217 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>260</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C18" t="s">
         <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G25" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4434,10 +5306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+      <selection activeCell="A14" sqref="A14:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4473,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -4485,7 +5357,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -4493,10 +5365,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -4505,7 +5377,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -4513,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4525,7 +5397,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -4576,22 +5448,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -4599,10 +5471,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
         <v>144</v>
@@ -4611,10 +5483,10 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -4634,7 +5506,10 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G9" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
@@ -4642,10 +5517,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -4654,7 +5529,7 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -4674,7 +5549,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
         <v>132</v>
@@ -4685,10 +5560,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -4697,10 +5572,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -4708,10 +5583,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -4720,10 +5595,10 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -4731,10 +5606,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -4743,10 +5618,10 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -4766,10 +5641,125 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>260</v>
       </c>
-      <c r="G15" t="s">
+      <c r="C16" t="s">
         <v>261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4779,10 +5769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4823,10 +5813,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -4835,7 +5825,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -4843,10 +5833,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -4855,7 +5845,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -4863,22 +5853,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -4886,10 +5876,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -4898,10 +5888,10 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -4921,7 +5911,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -4929,22 +5922,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -4952,10 +5945,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -4964,7 +5957,7 @@
         <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -4984,7 +5977,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
         <v>132</v>
@@ -4995,10 +5988,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -5007,10 +6000,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -5018,10 +6011,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
@@ -5030,10 +6023,10 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -5053,10 +6046,56 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +6108,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5111,10 +6150,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -5123,7 +6162,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5131,10 +6170,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -5143,7 +6182,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5151,22 +6190,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -5174,10 +6213,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -5186,10 +6225,10 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -5209,7 +6248,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -5217,10 +6259,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -5229,7 +6271,7 @@
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -5237,10 +6279,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -5249,10 +6291,10 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
@@ -5260,10 +6302,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -5272,10 +6314,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5287,8 +6329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5321,10 +6363,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -5333,7 +6375,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5341,10 +6383,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -5353,7 +6395,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5361,22 +6403,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -5384,10 +6426,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -5396,10 +6438,10 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -5419,15 +6461,18 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -5436,18 +6481,18 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -5456,10 +6501,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5472,7 +6517,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5505,10 +6550,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -5517,7 +6562,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5525,10 +6570,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -5537,7 +6582,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5545,22 +6590,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -5568,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -5580,10 +6625,10 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -5603,15 +6648,21 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -5620,18 +6671,21 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -5640,10 +6694,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5656,7 +6710,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5689,22 +6743,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5712,22 +6766,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5735,59 +6789,68 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" t="s">
         <v>241</v>
       </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="308">
   <si>
     <t>id</t>
   </si>
@@ -898,9 +898,6 @@
     <t>&lt;i&gt;true/false/not.given&lt;/i&gt;</t>
   </si>
   <si>
-    <t>./images/TRAN_HA.jpg</t>
-  </si>
-  <si>
     <t>Trưởng ban văn nghệ, thỉnh sư</t>
   </si>
   <si>
@@ -923,6 +920,48 @@
   </si>
   <si>
     <t>&lt;b&gt;𝘽𝙚 𝙮𝙤𝙪𝙧𝙨𝙚𝙡𝙛, 𝙙𝙤𝙣'𝙩 𝙗𝙚 𝙖𝙣𝙮𝙤𝙣𝙚 𝙚𝙡𝙨𝙚&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tia Nắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh (Tia)</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_NHAT_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Dương Thị Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Bích</t>
+  </si>
+  <si>
+    <t>Cái gì không làm được thì mình vừa khóc vừa làm!</t>
+  </si>
+  <si>
+    <t>./images/DUONG_THI_NGOC_BICH.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lai (Lai Lụt)</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_THI_LAI.jpg</t>
+  </si>
+  <si>
+    <t>Lai Thị Lụtt</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Nam</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Ồn nhất Tương Sinh</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_DINH_NAM.jpg</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A41"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2206,7 +2245,7 @@
         <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -2238,7 +2277,7 @@
         <v>285</v>
       </c>
       <c r="G40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.5">
@@ -2246,10 +2285,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" t="s">
         <v>289</v>
-      </c>
-      <c r="C41" t="s">
-        <v>290</v>
       </c>
       <c r="D41" t="s">
         <v>51</v>
@@ -2258,10 +2297,102 @@
         <v>21</v>
       </c>
       <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
         <v>291</v>
       </c>
-      <c r="G41" t="s">
-        <v>292</v>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2437,10 +2568,30 @@
         <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3052,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="E60" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4634,7 +4785,7 @@
         <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.5">
@@ -4642,10 +4793,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" t="s">
         <v>289</v>
-      </c>
-      <c r="C72" t="s">
-        <v>290</v>
       </c>
       <c r="D72" t="s">
         <v>51</v>
@@ -4654,10 +4805,10 @@
         <v>21</v>
       </c>
       <c r="F72" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" t="s">
         <v>291</v>
-      </c>
-      <c r="G72" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.5">
@@ -4704,6 +4855,98 @@
       </c>
       <c r="G74" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>299</v>
+      </c>
+      <c r="G76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>306</v>
+      </c>
+      <c r="G78" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4717,10 +4960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A25"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5273,7 +5516,7 @@
         <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
@@ -5281,10 +5524,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" t="s">
         <v>289</v>
-      </c>
-      <c r="C25" t="s">
-        <v>290</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
@@ -5293,10 +5536,79 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" t="s">
         <v>291</v>
       </c>
-      <c r="G25" t="s">
-        <v>292</v>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5306,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A20"/>
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5759,7 +6071,30 @@
         <v>285</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G21" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5769,10 +6104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5977,7 +6312,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
         <v>132</v>
@@ -6095,7 +6430,30 @@
         <v>285</v>
       </c>
       <c r="G14" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6105,10 +6463,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6320,6 +6678,26 @@
         <v>242</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6327,10 +6705,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6507,6 +6885,26 @@
         <v>242</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6514,10 +6912,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6700,6 +7098,26 @@
         <v>242</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6707,10 +7125,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6853,6 +7271,26 @@
         <v>242</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DA5E7-064E-4A2F-8307-86DB242F1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="312">
   <si>
     <t>id</t>
   </si>
@@ -962,12 +963,24 @@
   </si>
   <si>
     <t>./images/NGUYEN_DINH_NAM.jpg</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>hướng nội part time</t>
+  </si>
+  <si>
+    <t>Phan Uyên Phương (Bơ)</t>
+  </si>
+  <si>
+    <t>./images/PHAN_UYEN_PHUONG.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1347,14 +1360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1363,7 +1376,7 @@
     <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1455,7 +1468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1478,7 +1491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1501,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1570,7 +1583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1616,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1662,7 +1675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1685,7 +1698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1708,7 +1721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1731,7 +1744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1754,7 +1767,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1777,7 +1790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1800,7 +1813,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1869,7 +1882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1889,7 +1902,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1912,7 +1925,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1935,7 +1948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1958,7 +1971,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1981,7 +1994,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2027,7 +2040,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2050,7 +2063,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2073,7 +2086,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2096,7 +2109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2142,7 +2155,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2165,7 +2178,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2211,7 +2224,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2234,7 +2247,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2257,7 +2270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2280,7 +2293,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2326,7 +2339,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2393,6 +2406,29 @@
       </c>
       <c r="G45" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2404,16 +2440,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2459,7 +2495,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2482,7 +2518,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2505,7 +2541,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2528,7 +2564,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2551,7 +2587,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2574,7 +2610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>301</v>
       </c>
@@ -2600,16 +2636,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>147</v>
       </c>
@@ -2652,7 +2688,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -2672,7 +2708,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>235</v>
       </c>
@@ -2698,16 +2734,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -2750,7 +2786,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>147</v>
       </c>
@@ -2770,7 +2806,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>276</v>
       </c>
@@ -2796,16 +2832,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +2864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -2848,7 +2884,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -2874,16 +2910,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -2926,7 +2962,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -2952,16 +2988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3004,7 +3040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3030,16 +3066,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3088,16 +3124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3126,16 +3162,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3164,16 +3200,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3202,14 +3238,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="E60" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -3218,7 +3254,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3284,7 +3320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3307,7 +3343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3330,7 +3366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3353,7 +3389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3376,7 +3412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3399,7 +3435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3422,7 +3458,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3445,7 +3481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3468,7 +3504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3491,7 +3527,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3511,7 +3547,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3531,7 +3567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3551,7 +3587,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3571,7 +3607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3591,7 +3627,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3611,7 +3647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3634,7 +3670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3654,7 +3690,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3674,7 +3710,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3694,7 +3730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3714,7 +3750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3734,7 +3770,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3754,7 +3790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3774,7 +3810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3797,7 +3833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3820,7 +3856,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3840,7 +3876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3863,7 +3899,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3886,7 +3922,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3909,7 +3945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3932,7 +3968,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3978,7 +4014,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3998,7 +4034,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4021,7 +4057,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4067,7 +4103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4090,7 +4126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4113,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4136,7 +4172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4159,7 +4195,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4182,7 +4218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4205,7 +4241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4228,7 +4264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4248,7 +4284,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4271,7 +4307,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4294,7 +4330,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4314,7 +4350,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4334,7 +4370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4357,7 +4393,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4400,7 +4436,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4423,7 +4459,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4446,7 +4482,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4469,7 +4505,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4492,7 +4528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4512,7 +4548,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4535,7 +4571,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4558,7 +4594,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4581,7 +4617,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4604,7 +4640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4627,7 +4663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4650,7 +4686,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4673,7 +4709,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4696,7 +4732,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4719,7 +4755,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4742,7 +4778,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4765,7 +4801,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4788,7 +4824,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4811,7 +4847,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4834,7 +4870,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4857,7 +4893,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4880,7 +4916,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4903,7 +4939,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4926,7 +4962,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4947,6 +4983,29 @@
       </c>
       <c r="G78" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4959,14 +5018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -4976,7 +5035,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5019,7 +5078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5042,7 +5101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5062,7 +5121,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5085,7 +5144,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5108,7 +5167,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5131,7 +5190,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5154,7 +5213,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5177,7 +5236,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5197,7 +5256,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5220,7 +5279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5243,7 +5302,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5266,7 +5325,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5289,7 +5348,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5312,7 +5371,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5335,7 +5394,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5358,7 +5417,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5381,7 +5440,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5404,7 +5463,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5427,7 +5486,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5450,7 +5509,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5473,7 +5532,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5496,7 +5555,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5519,7 +5578,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5542,7 +5601,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5565,7 +5624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5588,7 +5647,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5609,6 +5668,29 @@
       </c>
       <c r="G28" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5617,19 +5699,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5652,7 +5734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5672,7 +5754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5692,7 +5774,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5712,7 +5794,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5732,7 +5814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5755,7 +5837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5778,7 +5860,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5801,7 +5883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5824,7 +5906,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5844,7 +5926,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5867,7 +5949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5890,7 +5972,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5913,7 +5995,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5936,7 +6018,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5959,7 +6041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5982,7 +6064,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6005,7 +6087,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6028,7 +6110,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6051,7 +6133,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6074,7 +6156,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6103,14 +6185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -6120,7 +6202,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6163,7 +6245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6183,7 +6265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6206,7 +6288,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6229,7 +6311,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6252,7 +6334,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6275,7 +6357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6295,7 +6377,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6318,7 +6400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6341,7 +6423,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6364,7 +6446,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6387,7 +6469,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6410,7 +6492,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6433,7 +6515,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6462,14 +6544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -6480,7 +6562,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6503,7 +6585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6523,7 +6605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6543,7 +6625,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6566,7 +6648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6589,7 +6671,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6612,7 +6694,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6632,7 +6714,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6655,7 +6737,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6678,7 +6760,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>301</v>
       </c>
@@ -6704,16 +6786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6756,7 +6838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6776,7 +6858,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6799,7 +6881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6822,7 +6904,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6845,7 +6927,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -6865,7 +6947,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>239</v>
       </c>
@@ -6885,7 +6967,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -6911,16 +6993,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +7025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6963,7 +7045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6983,7 +7065,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7006,7 +7088,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7029,7 +7111,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7052,7 +7134,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7075,7 +7157,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7098,7 +7180,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7124,16 +7206,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7156,7 +7238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7179,7 +7261,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7202,7 +7284,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7225,7 +7307,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7248,7 +7330,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7271,7 +7353,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>301</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DA5E7-064E-4A2F-8307-86DB242F1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE769E5-F218-448B-8E8D-3270290D54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -975,6 +975,18 @@
   </si>
   <si>
     <t>./images/PHAN_UYEN_PHUONG.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai Lan</t>
+  </si>
+  <si>
+    <t>Lan</t>
+  </si>
+  <si>
+    <t>hướng nội ít nói</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_MAI_LAN.jpg</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2429,6 +2441,29 @@
       </c>
       <c r="G46" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3239,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:G79"/>
+      <selection activeCell="B80" sqref="B80:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5006,6 +5041,29 @@
       </c>
       <c r="G79" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" t="s">
+        <v>313</v>
+      </c>
+      <c r="D80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s">
+        <v>314</v>
+      </c>
+      <c r="G80" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\codechanhtam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE769E5-F218-448B-8E8D-3270290D54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="341">
   <si>
     <t>id</t>
   </si>
@@ -987,12 +986,87 @@
   </si>
   <si>
     <t>./images/NGUYEN_MAI_LAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/PHAM_THI_MY_NGA.jpg</t>
+  </si>
+  <si>
+    <t>Phạm Thị Mỹ Nga (Sư sư)</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>📸</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Như Ý (Nhã Đan)</t>
+  </si>
+  <si>
+    <t>Tẻn tẻn</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_THI_NHU_Y.jpg</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>Phan Vũ Phúc Dương (Hím em)</t>
+  </si>
+  <si>
+    <t>vuýp</t>
+  </si>
+  <si>
+    <t>./images/PHAN_VU_PHUC_DUONG.jpg</t>
+  </si>
+  <si>
+    <t>Mai Thị Thanh Thảo</t>
+  </si>
+  <si>
+    <t>dưa hấu không hạt</t>
+  </si>
+  <si>
+    <t>./images/MAI_THI_THANH_THAO.jpg</t>
+  </si>
+  <si>
+    <t>Lê Bảo Trân (Su Zin)</t>
+  </si>
+  <si>
+    <t>Thành viên mới👼🏻</t>
+  </si>
+  <si>
+    <t>./images/LE_BAO_TRAN.jpg</t>
+  </si>
+  <si>
+    <t>Trần Thị Anh Thư</t>
+  </si>
+  <si>
+    <t>Thư</t>
+  </si>
+  <si>
+    <t>Niệm vô thất</t>
+  </si>
+  <si>
+    <t>./images/TRAN_THI_ANH_THU.jpg</t>
+  </si>
+  <si>
+    <t>Châu Thị Mỹ Lệ</t>
+  </si>
+  <si>
+    <t>Lệ</t>
+  </si>
+  <si>
+    <t>Chân thật trong suy nghĩ tử tế trong hành động🥰</t>
+  </si>
+  <si>
+    <t>./images/CHAU_THI_MY_LE.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1372,11 +1446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1459,8 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2464,6 +2539,167 @@
       </c>
       <c r="G47" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>321</v>
+      </c>
+      <c r="G49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>331</v>
+      </c>
+      <c r="G52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2671,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,7 +3005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2945,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,7 +3337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3159,7 +3395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,11 +3509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:G80"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5066,6 +5302,98 @@
         <v>315</v>
       </c>
     </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" t="s">
+        <v>319</v>
+      </c>
+      <c r="G81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" t="s">
+        <v>331</v>
+      </c>
+      <c r="G82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" t="s">
+        <v>335</v>
+      </c>
+      <c r="G83" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" t="s">
+        <v>338</v>
+      </c>
+      <c r="D84" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>339</v>
+      </c>
+      <c r="G84" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5076,11 +5404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5751,22 +6079,50 @@
         <v>311</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6235,6 +6591,29 @@
       </c>
       <c r="G21" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -6243,11 +6622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6602,7 +6981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6844,7 +7223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,7 +7430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7264,14 +7643,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7412,6 +7799,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>301</v>
       </c>
@@ -7429,6 +7819,29 @@
       </c>
       <c r="G7" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\codechanhtam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -1449,11 +1449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1463,7 +1463,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2718,9 +2718,9 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>301</v>
       </c>
@@ -2914,9 +2914,9 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>147</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>235</v>
       </c>
@@ -3012,9 +3012,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>147</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>276</v>
       </c>
@@ -3110,9 +3110,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3188,9 +3188,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3266,9 +3266,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3344,9 +3344,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3402,9 +3402,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3440,9 +3440,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3478,9 +3478,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3512,11 +3512,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -3525,7 +3525,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5407,11 +5407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:G30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -5421,7 +5421,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6111,11 +6111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
@@ -6125,7 +6125,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6629,7 +6629,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -6639,7 +6639,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6988,7 +6988,7 @@
       <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -6999,7 +6999,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>301</v>
       </c>
@@ -7226,13 +7226,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7275,7 +7283,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7295,7 +7303,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7318,7 +7326,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7341,7 +7349,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7364,7 +7372,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -7384,7 +7392,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>239</v>
       </c>
@@ -7404,7 +7412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7437,9 +7445,9 @@
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7462,7 +7470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7482,7 +7490,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7502,7 +7510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7525,7 +7533,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7548,7 +7556,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7571,7 +7579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7594,7 +7602,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7617,7 +7625,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7650,7 +7658,7 @@
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -7660,7 +7668,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7683,7 +7691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7706,7 +7714,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7729,7 +7737,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7798,7 +7806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7821,7 +7829,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="348">
   <si>
     <t>id</t>
   </si>
@@ -1061,6 +1061,27 @@
   </si>
   <si>
     <t>./images/CHAU_THI_MY_LE.jpg</t>
+  </si>
+  <si>
+    <t>bạn thân Nhật Anh</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_HOANG_MINH_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Minh Anh (Ma)</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc (Phúc Phúc)</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>Người lái tàu</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_PHUC.jpg</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A54" sqref="A54:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2700,6 +2721,52 @@
       </c>
       <c r="G54" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>346</v>
+      </c>
+      <c r="G56" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3510,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="A84" sqref="A84:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5394,6 +5461,52 @@
         <v>340</v>
       </c>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>343</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>341</v>
+      </c>
+      <c r="G85" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86" t="s">
+        <v>345</v>
+      </c>
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5405,10 +5518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6100,6 +6213,52 @@
       </c>
       <c r="G30" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G32" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7226,7 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\codechanhtam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="355">
   <si>
     <t>id</t>
   </si>
@@ -1082,6 +1082,27 @@
   </si>
   <si>
     <t>./images/NGUYEN_PHUC.jpg</t>
+  </si>
+  <si>
+    <t>Hiền</t>
+  </si>
+  <si>
+    <t>Hồ Thị Thanh Hiền (Sam)</t>
+  </si>
+  <si>
+    <t>Thanh Hiền</t>
+  </si>
+  <si>
+    <t>./images/HO_THI_THANH_HIEN.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Quỳnh Anh (Cuộn Len)</t>
+  </si>
+  <si>
+    <t>giao diện 1 đằng, hệ điều hành 1 nẻo</t>
+  </si>
+  <si>
+    <t>./images/NGUYEN_XUAN_QUYNH_ANH.jpg</t>
   </si>
 </sst>
 </file>
@@ -1468,13 +1489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1484,7 +1505,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1530,7 +1551,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1553,7 +1574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1576,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1622,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1645,7 +1666,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1668,7 +1689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1691,7 +1712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1714,7 +1735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1737,7 +1758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1783,7 +1804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1806,7 +1827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1875,7 +1896,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1921,7 +1942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1944,7 +1965,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1967,7 +1988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1990,7 +2011,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2010,7 +2031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2033,7 +2054,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2056,7 +2077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2079,7 +2100,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2102,7 +2123,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2125,7 +2146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2148,7 +2169,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2171,7 +2192,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2194,7 +2215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2217,7 +2238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2240,7 +2261,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2263,7 +2284,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2286,7 +2307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2309,7 +2330,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2332,7 +2353,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2355,7 +2376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2378,7 +2399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2401,7 +2422,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2447,7 +2468,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2470,7 +2491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2516,7 +2537,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2539,7 +2560,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2562,7 +2583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2585,7 +2606,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2608,7 +2629,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2654,7 +2675,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2677,7 +2698,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2700,7 +2721,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2746,7 +2767,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2767,6 +2788,52 @@
       </c>
       <c r="G56" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G58" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2785,9 +2852,9 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2833,7 +2900,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2856,7 +2923,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2879,7 +2946,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2902,7 +2969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2925,7 +2992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2948,7 +3015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>301</v>
       </c>
@@ -2981,9 +3048,9 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>147</v>
       </c>
@@ -3026,7 +3093,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3046,7 +3113,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>235</v>
       </c>
@@ -3079,9 +3146,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3124,7 +3191,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>147</v>
       </c>
@@ -3144,7 +3211,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>276</v>
       </c>
@@ -3177,9 +3244,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3222,7 +3289,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3255,9 +3322,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3300,7 +3367,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3333,9 +3400,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3378,7 +3445,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3411,9 +3478,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3469,9 +3536,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3507,9 +3574,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3545,9 +3612,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3650,7 @@
       <selection activeCell="A84" sqref="A84:A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -3592,7 +3659,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3615,7 +3682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3635,7 +3702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3658,7 +3725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3681,7 +3748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3704,7 +3771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3727,7 +3794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3750,7 +3817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3773,7 +3840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3796,7 +3863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3819,7 +3886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3842,7 +3909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3865,7 +3932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3885,7 +3952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3905,7 +3972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3925,7 +3992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3945,7 +4012,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3965,7 +4032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3985,7 +4052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4008,7 +4075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4028,7 +4095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4048,7 +4115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4068,7 +4135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4088,7 +4155,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4108,7 +4175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4128,7 +4195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4148,7 +4215,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4171,7 +4238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4194,7 +4261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4214,7 +4281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4237,7 +4304,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4260,7 +4327,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4283,7 +4350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4306,7 +4373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4329,7 +4396,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4352,7 +4419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4372,7 +4439,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4395,7 +4462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4418,7 +4485,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4441,7 +4508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4464,7 +4531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4487,7 +4554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4510,7 +4577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4533,7 +4600,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4556,7 +4623,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4579,7 +4646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4602,7 +4669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4622,7 +4689,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4645,7 +4712,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4668,7 +4735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4688,7 +4755,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4708,7 +4775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4731,7 +4798,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4751,7 +4818,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4774,7 +4841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4797,7 +4864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4820,7 +4887,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4843,7 +4910,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4866,7 +4933,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4886,7 +4953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4909,7 +4976,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4932,7 +4999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4955,7 +5022,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4978,7 +5045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5001,7 +5068,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5024,7 +5091,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5047,7 +5114,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5070,7 +5137,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5093,7 +5160,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5116,7 +5183,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5139,7 +5206,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5162,7 +5229,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5185,7 +5252,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5208,7 +5275,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5231,7 +5298,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5254,7 +5321,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5277,7 +5344,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5300,7 +5367,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5323,7 +5390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5346,7 +5413,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5369,7 +5436,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5392,7 +5459,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5415,7 +5482,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5438,7 +5505,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5461,7 +5528,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5484,7 +5551,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5518,13 +5585,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -5534,7 +5601,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5577,7 +5644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5600,7 +5667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5620,7 +5687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5643,7 +5710,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5666,7 +5733,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5689,7 +5756,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5712,7 +5779,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5735,7 +5802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5755,7 +5822,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5778,7 +5845,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5801,7 +5868,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5824,7 +5891,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5847,7 +5914,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5870,7 +5937,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5893,7 +5960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5916,7 +5983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5939,7 +6006,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5962,7 +6029,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5985,7 +6052,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6008,7 +6075,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6031,7 +6098,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6054,7 +6121,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6077,7 +6144,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6100,7 +6167,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6123,7 +6190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6146,7 +6213,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6169,7 +6236,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6192,7 +6259,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6215,7 +6282,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6238,7 +6305,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6259,6 +6326,29 @@
       </c>
       <c r="G32" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>350</v>
+      </c>
+      <c r="G33" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -6268,23 +6358,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6307,7 +6397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6327,7 +6417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6347,7 +6437,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6367,7 +6457,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6387,7 +6477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6410,7 +6500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6433,7 +6523,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6456,7 +6546,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6479,7 +6569,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6499,7 +6589,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6522,7 +6612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6545,7 +6635,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6568,7 +6658,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6591,7 +6681,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6614,7 +6704,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6637,7 +6727,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6660,7 +6750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6683,7 +6773,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6706,7 +6796,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6729,7 +6819,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6752,7 +6842,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6773,6 +6863,29 @@
       </c>
       <c r="G22" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6788,7 +6901,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -6798,7 +6911,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6841,7 +6954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6861,7 +6974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6884,7 +6997,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6907,7 +7020,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6930,7 +7043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6953,7 +7066,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6973,7 +7086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6996,7 +7109,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7019,7 +7132,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7042,7 +7155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7065,7 +7178,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7088,7 +7201,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7111,7 +7224,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7147,7 +7260,7 @@
       <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -7158,7 +7271,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7181,7 +7294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7201,7 +7314,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7221,7 +7334,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7244,7 +7357,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7267,7 +7380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7290,7 +7403,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7310,7 +7423,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7333,7 +7446,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7356,7 +7469,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>301</v>
       </c>
@@ -7389,17 +7502,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7422,7 +7535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7442,7 +7555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7462,7 +7575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7485,7 +7598,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7508,7 +7621,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7531,7 +7644,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -7551,7 +7664,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>239</v>
       </c>
@@ -7571,7 +7684,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7604,9 +7717,9 @@
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7629,7 +7742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7649,7 +7762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7669,7 +7782,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7692,7 +7805,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7715,7 +7828,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7738,7 +7851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7761,7 +7874,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7784,7 +7897,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7817,7 +7930,7 @@
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -7827,7 +7940,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7850,7 +7963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7873,7 +7986,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7896,7 +8009,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7919,7 +8032,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7942,7 +8055,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7965,7 +8078,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7988,7 +8101,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_dinh\Desktop\codechanhtam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="355">
   <si>
     <t>id</t>
   </si>
@@ -1491,11 +1491,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1505,7 +1505,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2852,9 +2852,9 @@
       <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>301</v>
       </c>
@@ -3048,9 +3048,9 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>147</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>235</v>
       </c>
@@ -3146,9 +3146,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>147</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>276</v>
       </c>
@@ -3244,9 +3244,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3322,9 +3322,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3400,9 +3400,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>276</v>
       </c>
@@ -3478,9 +3478,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>235</v>
       </c>
@@ -3536,9 +3536,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3574,9 +3574,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3612,9 +3612,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3644,13 +3644,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:A86"/>
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -3659,7 +3659,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5572,6 +5572,52 @@
       </c>
       <c r="G86" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>350</v>
+      </c>
+      <c r="G87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5585,13 +5631,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -5601,7 +5647,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5624,7 +5670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5644,7 +5690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5667,7 +5713,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5687,7 +5733,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5710,7 +5756,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5733,7 +5779,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5756,7 +5802,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5779,7 +5825,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5802,7 +5848,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5822,7 +5868,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5845,7 +5891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5868,7 +5914,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5891,7 +5937,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5914,7 +5960,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5937,7 +5983,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5960,7 +6006,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5983,7 +6029,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6006,7 +6052,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6029,7 +6075,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6052,7 +6098,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6075,7 +6121,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6098,7 +6144,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6121,7 +6167,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6144,7 +6190,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6167,7 +6213,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6190,7 +6236,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6213,7 +6259,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6236,7 +6282,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6259,7 +6305,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6282,7 +6328,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6305,7 +6351,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6328,7 +6374,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6349,6 +6395,29 @@
       </c>
       <c r="G33" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>353</v>
+      </c>
+      <c r="G34" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6360,11 +6429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
@@ -6374,7 +6443,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6397,7 +6466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6417,7 +6486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6437,7 +6506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6457,7 +6526,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6477,7 +6546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6500,7 +6569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6523,7 +6592,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6546,7 +6615,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6569,7 +6638,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6589,7 +6658,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6612,7 +6681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6635,7 +6704,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6658,7 +6727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6681,7 +6750,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6704,7 +6773,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6727,7 +6796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6750,7 +6819,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6773,7 +6842,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6796,7 +6865,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6819,7 +6888,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6842,7 +6911,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6865,7 +6934,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6901,7 +6970,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -6911,7 +6980,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6934,7 +7003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6954,7 +7023,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6974,7 +7043,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6997,7 +7066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7020,7 +7089,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7043,7 +7112,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7066,7 +7135,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7086,7 +7155,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7109,7 +7178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7132,7 +7201,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7155,7 +7224,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7178,7 +7247,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7201,7 +7270,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7224,7 +7293,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7260,7 +7329,7 @@
       <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -7271,7 +7340,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +7363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7314,7 +7383,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7334,7 +7403,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7357,7 +7426,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7380,7 +7449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7403,7 +7472,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7423,7 +7492,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7446,7 +7515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7469,7 +7538,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
         <v>301</v>
       </c>
@@ -7502,7 +7571,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
@@ -7512,7 +7581,7 @@
     <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7535,7 +7604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7555,7 +7624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7575,7 +7644,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7598,7 +7667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7621,7 +7690,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7644,7 +7713,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B7" t="s">
         <v>235</v>
       </c>
@@ -7664,7 +7733,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>239</v>
       </c>
@@ -7684,7 +7753,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7717,9 +7786,9 @@
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7742,7 +7811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7762,7 +7831,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7782,7 +7851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7805,7 +7874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7828,7 +7897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7851,7 +7920,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7874,7 +7943,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7897,7 +7966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>301</v>
       </c>
@@ -7930,7 +7999,7 @@
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -7940,7 +8009,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +8032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7986,7 +8055,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8009,7 +8078,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8032,7 +8101,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8055,7 +8124,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8078,7 +8147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8101,7 +8170,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="358">
   <si>
     <t>id</t>
   </si>
@@ -1103,6 +1103,15 @@
   </si>
   <si>
     <t>./images/NGUYEN_XUAN_QUYNH_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Trần Phương Nam (Nhuận Tường)</t>
+  </si>
+  <si>
+    <t>Hiện tại mình đang sống ẩn</t>
+  </si>
+  <si>
+    <t>./images/TRAN_PHUONG_NAM.jpg</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:G58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2834,6 +2843,26 @@
       </c>
       <c r="G58" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G59" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3644,10 +3673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+      <selection activeCell="B89" sqref="B89:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5620,6 +5649,26 @@
         <v>354</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B89" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>356</v>
+      </c>
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5631,10 +5680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6420,6 +6469,26 @@
         <v>354</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>356</v>
+      </c>
+      <c r="G35" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6427,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:G23"/>
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6957,6 +7026,26 @@
         <v>354</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6964,10 +7053,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -7314,6 +7403,29 @@
       </c>
       <c r="G15" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="2008" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2022'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="450">
   <si>
     <t>id</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Cá thích chơi</t>
   </si>
   <si>
-    <t>./images/HO_THI_CHAU_LINH.jpg</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Nhật Anh</t>
   </si>
   <si>
@@ -210,39 +208,21 @@
     <t>Siêu hướng nội</t>
   </si>
   <si>
-    <t>./images/LY_THANH_TUNG.jpg</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Như Ngọc</t>
   </si>
   <si>
     <t>Ngọc</t>
   </si>
   <si>
-    <t>Trưởng ban văn nghệ</t>
-  </si>
-  <si>
     <t>Shark Long</t>
   </si>
   <si>
-    <t>./images/NGUYEN_THI_NHU_NGOC.jpg</t>
-  </si>
-  <si>
-    <t>Đậu Đoàn Hoàn Mỹ</t>
-  </si>
-  <si>
     <t>Mỹ</t>
   </si>
   <si>
-    <t>Trưởng ban thỉnh sư</t>
-  </si>
-  <si>
     <t>Nhỏ mà có võ</t>
   </si>
   <si>
-    <t>./images/DAU_DOAN_HOAN_MY.jpg</t>
-  </si>
-  <si>
     <t>Lê Thị Thuận Hóa</t>
   </si>
   <si>
@@ -264,9 +244,6 @@
     <t>Trưởng ban hậu cần</t>
   </si>
   <si>
-    <t>./images/NGUYEN_THI_HUYNH_THANH.jpg</t>
-  </si>
-  <si>
     <t>Phan Thị Cẩm Nhi</t>
   </si>
   <si>
@@ -285,15 +262,9 @@
     <t>Thảo Tabi</t>
   </si>
   <si>
-    <t>./images/BACH_THI_THU_THAO.jpg</t>
-  </si>
-  <si>
     <t>Huy</t>
   </si>
   <si>
-    <t>./images/LE_VAN_HUY.jpg</t>
-  </si>
-  <si>
     <t>Nguyễn Đăng Huy</t>
   </si>
   <si>
@@ -312,9 +283,6 @@
     <t>Nguyễn Nhật Linh</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Ngọc Ánh</t>
   </si>
   <si>
@@ -399,9 +367,6 @@
     <t>Ái</t>
   </si>
   <si>
-    <t>Hậu cần khó thì có chị Ái</t>
-  </si>
-  <si>
     <t>Dương Thị Thu Huyền</t>
   </si>
   <si>
@@ -483,34 +448,21 @@
     <t>Giọng to nhất Chánh Tâm</t>
   </si>
   <si>
-    <t>./images/LE_THI_BICH_TIEN.jpg</t>
-  </si>
-  <si>
     <t>Phan Thị Phương Anh (Sô)</t>
   </si>
   <si>
     <t>Sony Phan</t>
   </si>
   <si>
-    <t>./images/PHAN_THI_PHUONG_ANH.jpg</t>
-  </si>
-  <si>
     <t>&lt;s&gt;yesterday&lt;/s&gt; NOW &lt;del&gt;tomorrow&lt;/del&gt;</t>
   </si>
   <si>
     <t>./images/HUYNH_NGUYEN_TAM_NHA.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">./images/NGUYEN_DANG_HUY.jpg
-</t>
-  </si>
-  <si>
     <t>Lớp trưởng 2019-2023</t>
   </si>
   <si>
-    <t>./images/NGUYEN_NGOC_KY_DUYEN.jpg</t>
-  </si>
-  <si>
     <t>Má hồng 😳</t>
   </si>
   <si>
@@ -589,9 +541,6 @@
     <t>Trân</t>
   </si>
   <si>
-    <t>Nhật Kim</t>
-  </si>
-  <si>
     <t>./images/LE_THI_THUY_TRANG.jpg</t>
   </si>
   <si>
@@ -703,9 +652,6 @@
     <t>Duyy</t>
   </si>
   <si>
-    <t>./images/LE_DUC_DUY.jpg</t>
-  </si>
-  <si>
     <t>Trần Thị Thu Hương</t>
   </si>
   <si>
@@ -724,9 +670,6 @@
     <t>hoho</t>
   </si>
   <si>
-    <t>./images/THAN_TRONG_QUANG_DUNG.jpg</t>
-  </si>
-  <si>
     <t>hihi</t>
   </si>
   <si>
@@ -757,9 +700,6 @@
     <t>cô bé phức tạp</t>
   </si>
   <si>
-    <t>./images/LE_NGOC_GIAN_DON.jpg</t>
-  </si>
-  <si>
     <t>Lê Thị Diệu Trinh</t>
   </si>
   <si>
@@ -769,9 +709,6 @@
     <t>Lặng lẽ học tập, rèn luyện thân tâm</t>
   </si>
   <si>
-    <t>./images/LE_THI_DIEU_TRINH.jpg</t>
-  </si>
-  <si>
     <t>Biết ơn - Tĩnh lặng</t>
   </si>
   <si>
@@ -805,9 +742,6 @@
     <t>Muốn được iu thưn🫶</t>
   </si>
   <si>
-    <t>./images/TRAN_NHAT_LAI.jpg</t>
-  </si>
-  <si>
     <t>Võ Hồng Đức (Mai Cồ Phước Duyên)</t>
   </si>
   <si>
@@ -826,9 +760,6 @@
     <t>Trưởng ban văn nghệ, thỉnh sư</t>
   </si>
   <si>
-    <t>./images/TRAN_THI_HA.jpg</t>
-  </si>
-  <si>
     <t>Nguyễn Hoàng Quỳnh Như</t>
   </si>
   <si>
@@ -862,9 +793,6 @@
     <t>Nguyễn Thị Lai (Lai Lụt)</t>
   </si>
   <si>
-    <t>./images/NGUYEN_THI_LAI.jpg</t>
-  </si>
-  <si>
     <t>Lai Thị Lụtt</t>
   </si>
   <si>
@@ -895,9 +823,6 @@
     <t>hướng nội ít nói</t>
   </si>
   <si>
-    <t>./images/NGUYEN_MAI_LAN.jpg</t>
-  </si>
-  <si>
     <t>./images/PHAM_THI_MY_NGA.jpg</t>
   </si>
   <si>
@@ -916,9 +841,6 @@
     <t>Tẻn tẻn</t>
   </si>
   <si>
-    <t>./images/NGUYEN_THI_NHU_Y.jpg</t>
-  </si>
-  <si>
     <t>Dương</t>
   </si>
   <si>
@@ -928,9 +850,6 @@
     <t>vuýp</t>
   </si>
   <si>
-    <t>./images/PHAN_VU_PHUC_DUONG.jpg</t>
-  </si>
-  <si>
     <t>Mai Thị Thanh Thảo</t>
   </si>
   <si>
@@ -943,9 +862,6 @@
     <t>Thành viên mới👼🏻</t>
   </si>
   <si>
-    <t>./images/LE_BAO_TRAN.jpg</t>
-  </si>
-  <si>
     <t>Trần Thị Anh Thư</t>
   </si>
   <si>
@@ -955,9 +871,6 @@
     <t>Niệm vô thất</t>
   </si>
   <si>
-    <t>./images/TRAN_THI_ANH_THU.jpg</t>
-  </si>
-  <si>
     <t>Châu Thị Mỹ Lệ</t>
   </si>
   <si>
@@ -967,9 +880,6 @@
     <t>Chân thật trong suy nghĩ tử tế trong hành động🥰</t>
   </si>
   <si>
-    <t>./images/CHAU_THI_MY_LE.jpg</t>
-  </si>
-  <si>
     <t>bạn thân Nhật Anh</t>
   </si>
   <si>
@@ -998,9 +908,6 @@
   </si>
   <si>
     <t>giao diện 1 đằng, hệ điều hành 1 nẻo</t>
-  </si>
-  <si>
-    <t>./images/NGUYEN_XUAN_QUYNH_ANH.jpg</t>
   </si>
   <si>
     <t>Trần Phương Nam (Nhuận Tường)</t>
@@ -1350,6 +1257,141 @@
   </si>
   <si>
     <t>Hay cười 🌱</t>
+  </si>
+  <si>
+    <t>./images/2023/THAN_TRONG_QUANG_DUNG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/TRAN_THI_HA.jpg</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_MAI_LAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2018/PHAN_VU_PHUC_DUONG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/LE_BAO_TRAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/TRAN_THI_ANH_THU.jpg</t>
+  </si>
+  <si>
+    <t>Đậu Đoàn Hoàn Mỹ (Mỵ Mỵ)</t>
+  </si>
+  <si>
+    <t>./images/2022/DAU_DOAN_HOAN_MY.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/HO_THI_CHAU_LINH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/CHAU_THI_MY_LE.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_THI_HUYNH_THANH.jpg</t>
+  </si>
+  <si>
+    <t>Trưởng ban văn nghệ 2022-2025</t>
+  </si>
+  <si>
+    <t>./images/2019/NGUYEN_THI_NHU_NGOC.jpg</t>
+  </si>
+  <si>
+    <t>./images/2021/BACH_THI_THU_THAO.jpg</t>
+  </si>
+  <si>
+    <t>Ban chấp hành 2022-2024</t>
+  </si>
+  <si>
+    <t>Hậu cần khó - có chị Ái</t>
+  </si>
+  <si>
+    <t>./images/2012/LE_THI_BICH_TIEN.jpg</t>
+  </si>
+  <si>
+    <t>Cô gái lúm đồng tiền 🪙</t>
+  </si>
+  <si>
+    <t>Ban chấp hành 2020-2024</t>
+  </si>
+  <si>
+    <t>Lê Thị Trà My</t>
+  </si>
+  <si>
+    <t>☘️</t>
+  </si>
+  <si>
+    <t>./images/2024/TON_NU_YEN_NGOC.jpg</t>
+  </si>
+  <si>
+    <t>Nhuận Thiền Dũng</t>
+  </si>
+  <si>
+    <t>./images/2024/TRUONG_VAN_QUY.jpg</t>
+  </si>
+  <si>
+    <t>Nhuận Bảo Lộc</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_VAN_LOC.jpg</t>
+  </si>
+  <si>
+    <t>Phan Thị Quỳnh Trâm</t>
+  </si>
+  <si>
+    <t>./images/2023/PHAN_THI_QUYNH_TRAM.jpg</t>
+  </si>
+  <si>
+    <t>Quỳnh Trâm</t>
+  </si>
+  <si>
+    <t>./images/2022/PHAN_THI_PHUONG_ANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/LE_NGOC_GIAN_DON.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/LE_THI_DIEU_TRINH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/TRAN_NHAT_LAI.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_THI_NHU_Y.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_XUAN_QUYNH_ANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_NGOC_KY_DUYEN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2020/NGUYEN_DANG_HUY.jpg</t>
+  </si>
+  <si>
+    <t>Phạm Đức Định</t>
+  </si>
+  <si>
+    <t>Định</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>./</t>
+  </si>
+  <si>
+    <t>./images/2017/LY_THANH_TUNG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2017/LE_DUC_DUY.jpg</t>
+  </si>
+  <si>
+    <t>./images/2017/NGUYEN_THI_LAI.jpg</t>
+  </si>
+  <si>
+    <t>./images/2017/LE_VAN_HUY.jpg</t>
   </si>
 </sst>
 </file>
@@ -1737,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1776,190 +1818,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>307</v>
-      </c>
-      <c r="G9" t="s">
-        <v>308</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1970,14 +1828,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
+    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.8125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2010,22 +1869,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -2033,22 +1892,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -2056,22 +1915,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -2079,22 +1938,42 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2104,13 +1983,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -2133,6 +2015,29 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2050,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2174,23 +2079,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2200,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2229,6 +2137,26 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2276,13 +2204,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -2308,23 +2240,80 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2326,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2366,63 +2355,72 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2546,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2586,819 +2584,269 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>156</v>
+      <c r="F4" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>263</v>
+      </c>
+      <c r="G8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>275</v>
+      </c>
+      <c r="G10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>278</v>
+      </c>
+      <c r="G11" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A15">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A24">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A25">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A27">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A30">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A31">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A32">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A33">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A34">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A35">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>288</v>
-      </c>
-      <c r="G35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s">
-        <v>299</v>
-      </c>
-      <c r="G36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A37">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>303</v>
-      </c>
-      <c r="G37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A38">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>307</v>
-      </c>
-      <c r="G38" t="s">
-        <v>308</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B7:F11 B12:F12 B20:G21 B19:C19 E19:F19 B4:E4 G4 B14:F15 B2:G3 B18:F18 B13:D13 F13 B5:G5 B16:F17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3439,22 +2887,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -3462,22 +2910,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -3485,22 +2933,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -3508,19 +2956,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>326</v>
+      </c>
+      <c r="G5" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -3528,1513 +2979,1536 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>215</v>
+      </c>
+      <c r="G11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>279</v>
+      </c>
+      <c r="G12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
-        <v>264</v>
-      </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>427</v>
+      </c>
+      <c r="G14" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>241</v>
+      </c>
+      <c r="G16" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>248</v>
+      </c>
+      <c r="G20" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
+        <v>429</v>
+      </c>
+      <c r="G26" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" t="s">
-        <v>422</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" t="s">
-        <v>423</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>368</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>209</v>
+      </c>
+      <c r="G32" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>46</v>
-      </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="s">
-        <v>46</v>
-      </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>152</v>
+      </c>
+      <c r="G47" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
         <v>45</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>46</v>
       </c>
-      <c r="F48" t="s">
-        <v>331</v>
+      <c r="G48" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
         <v>45</v>
       </c>
-      <c r="E49" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>259</v>
+      </c>
+      <c r="G49" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="C50" t="s">
-        <v>390</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
         <v>45</v>
       </c>
-      <c r="E50" t="s">
-        <v>46</v>
-      </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
         <v>45</v>
       </c>
-      <c r="E51" t="s">
-        <v>46</v>
-      </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
         <v>45</v>
       </c>
-      <c r="E52" t="s">
-        <v>46</v>
-      </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
         <v>45</v>
       </c>
-      <c r="E53" t="s">
-        <v>46</v>
-      </c>
       <c r="F53" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C54" t="s">
-        <v>396</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
         <v>45</v>
       </c>
-      <c r="E54" t="s">
-        <v>46</v>
-      </c>
       <c r="F54" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
       <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
         <v>45</v>
       </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
       <c r="F55" t="s">
-        <v>198</v>
-      </c>
-      <c r="G55" t="s">
-        <v>425</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="C56" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
         <v>45</v>
       </c>
-      <c r="E56" t="s">
-        <v>32</v>
-      </c>
       <c r="F56" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>255</v>
+      </c>
+      <c r="G58" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C63" t="s">
-        <v>408</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>435</v>
-      </c>
-      <c r="G63" t="s">
-        <v>431</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="C64" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>331</v>
+        <v>404</v>
+      </c>
+      <c r="G64" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C67" t="s">
-        <v>414</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>169</v>
-      </c>
-      <c r="G68" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
-      </c>
-      <c r="G69" t="s">
-        <v>427</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="G71" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="G72" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>331</v>
+        <v>286</v>
+      </c>
+      <c r="G73" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>163</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G77">
+    <sortState ref="A2:G78">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -5044,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5085,303 +4559,352 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>329</v>
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>221</v>
+      </c>
+      <c r="G4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>254</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>16</v>
+      </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>17</v>
+      </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>18</v>
+      </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" t="s">
-        <v>152</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5391,10 +4914,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5435,19 +4958,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5455,210 +4981,264 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>265</v>
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>290</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>231</v>
-      </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>257</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>259</v>
+      <c r="F8" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
+      <c r="G13" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G13">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5700,19 +5280,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>294</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5720,62 +5303,85 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5785,17 +5391,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.9375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
@@ -5829,19 +5435,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5849,56 +5455,82 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>401</v>
+      </c>
+      <c r="G3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>432</v>
-      </c>
-      <c r="G5" t="s">
-        <v>433</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5911,10 +5543,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.9375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -5944,19 +5583,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -5964,19 +5606,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -5984,22 +5629,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6012,7 +5654,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6050,25 +5692,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF646A0-74F9-42C9-B391-E2714427FFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="463">
   <si>
     <t>id</t>
   </si>
@@ -340,15 +341,9 @@
     <t>Xô Nguyễn</t>
   </si>
   <si>
-    <t>Phan Việt Thi</t>
-  </si>
-  <si>
     <t>Thi</t>
   </si>
   <si>
-    <t>Nu</t>
-  </si>
-  <si>
     <t>Nguyễn Hồ Thảo Nhi (Pho)</t>
   </si>
   <si>
@@ -518,9 +513,6 @@
   </si>
   <si>
     <t>Trang</t>
-  </si>
-  <si>
-    <t>Hướng lung tung</t>
   </si>
   <si>
     <t>Lê Huyền Trang</t>
@@ -1022,9 +1014,6 @@
     <t>Tôn Nữ Yến Ngọc</t>
   </si>
   <si>
-    <t>Yến Ngọc</t>
-  </si>
-  <si>
     <t>Trương Thị Phương Loan</t>
   </si>
   <si>
@@ -1392,12 +1381,63 @@
   </si>
   <si>
     <t>./images/2017/LE_VAN_HUY.jpg</t>
+  </si>
+  <si>
+    <t>hối nượng</t>
+  </si>
+  <si>
+    <t>Hồ Thị Minh Châu (cún)</t>
+  </si>
+  <si>
+    <t>./images/2025/HO_THI_MINH_CHAU.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tống Hồ Trần Tuyền </t>
+  </si>
+  <si>
+    <t>Tuyền</t>
+  </si>
+  <si>
+    <t>bún đậu muối tiêu</t>
+  </si>
+  <si>
+    <t>./images/2023/TONG_HO_TRAN_TUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Lá được ánh nắng chiếu vào</t>
+  </si>
+  <si>
+    <t>./images/2023/PHAN_VIET_THI.jpg</t>
+  </si>
+  <si>
+    <t>Phan Việt Thi (Nhật Diệp)</t>
+  </si>
+  <si>
+    <t>Hướng nội</t>
+  </si>
+  <si>
+    <t>./images/2023/LE_HUYEN_TRANG.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Kính Nghĩa</t>
+  </si>
+  <si>
+    <t>Nghĩa</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>./images/2020/NGUYEN_KINH_NGHIA.jpg</t>
+  </si>
+  <si>
+    <t>Sống cùng cảm xúc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1433,13 +1473,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1778,14 +1817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1795,7 +1834,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,21 +1866,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1864,15 +1903,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -1881,13 +1920,13 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1907,18 +1946,18 @@
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -1927,18 +1966,18 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -1950,30 +1989,30 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1982,19 +2021,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2017,27 +2056,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2046,16 +2085,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2078,27 +2117,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2107,16 +2146,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2139,24 +2178,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>298</v>
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>295</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2165,16 +2204,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2203,20 +2242,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2239,49 +2278,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2293,27 +2332,27 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2322,16 +2361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2354,73 +2393,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2429,21 +2468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2467,16 +2506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2505,16 +2544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2543,14 +2582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -2559,7 +2598,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2582,15 +2621,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -2599,21 +2638,21 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -2622,21 +2661,21 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -2645,18 +2684,18 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -2668,21 +2707,21 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -2691,18 +2730,18 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -2714,21 +2753,21 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
@@ -2737,21 +2776,21 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
@@ -2760,21 +2799,21 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -2783,21 +2822,21 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -2806,21 +2845,21 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -2829,7 +2868,30 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -2842,14 +2904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -2859,7 +2921,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2902,15 +2964,15 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -2922,13 +2984,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2948,15 +3010,15 @@
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2968,21 +3030,21 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
       <c r="G5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2991,18 +3053,21 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -3011,12 +3076,12 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -3034,18 +3099,18 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3054,15 +3119,15 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -3080,15 +3145,15 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -3100,18 +3165,18 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -3123,15 +3188,15 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -3149,18 +3214,18 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -3169,18 +3234,18 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -3192,18 +3257,18 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -3212,21 +3277,21 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -3235,18 +3300,18 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -3255,18 +3320,18 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -3275,18 +3340,18 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
@@ -3295,21 +3360,21 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
@@ -3318,18 +3383,18 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -3341,15 +3406,15 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -3361,18 +3426,18 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -3381,18 +3446,18 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
@@ -3401,18 +3466,18 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -3421,21 +3486,21 @@
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
@@ -3444,18 +3509,18 @@
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
@@ -3464,15 +3529,15 @@
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -3484,18 +3549,18 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
@@ -3504,15 +3569,15 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>
@@ -3524,15 +3589,15 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -3547,18 +3612,18 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C33" t="s">
         <v>56</v>
@@ -3570,18 +3635,18 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
@@ -3590,15 +3655,15 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -3610,15 +3675,15 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -3630,18 +3695,18 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
@@ -3650,18 +3715,18 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
@@ -3670,15 +3735,15 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
         <v>71</v>
@@ -3690,18 +3755,18 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
@@ -3710,18 +3775,18 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -3730,18 +3795,18 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -3750,18 +3815,18 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
@@ -3770,15 +3835,15 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -3790,18 +3855,18 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -3810,18 +3875,18 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -3830,18 +3895,18 @@
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
@@ -3853,15 +3918,15 @@
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -3879,18 +3944,18 @@
         <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
         <v>44</v>
@@ -3899,21 +3964,21 @@
         <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G49" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
         <v>44</v>
@@ -3922,15 +3987,15 @@
         <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -3942,18 +4007,18 @@
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
@@ -3962,18 +4027,18 @@
         <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C53" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -3982,15 +4047,15 @@
         <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -4002,18 +4067,18 @@
         <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
@@ -4022,18 +4087,18 @@
         <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D56" t="s">
         <v>44</v>
@@ -4042,18 +4107,18 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
@@ -4062,21 +4127,21 @@
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G57" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
         <v>44</v>
@@ -4085,21 +4150,21 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D59" t="s">
         <v>44</v>
@@ -4108,18 +4173,18 @@
         <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
@@ -4128,18 +4193,18 @@
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>44</v>
@@ -4148,15 +4213,15 @@
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -4168,18 +4233,18 @@
         <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
@@ -4188,18 +4253,18 @@
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D64" t="s">
         <v>44</v>
@@ -4208,21 +4273,21 @@
         <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G64" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C65" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D65" t="s">
         <v>44</v>
@@ -4231,15 +4296,15 @@
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -4251,15 +4316,15 @@
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -4271,18 +4336,18 @@
         <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D68" t="s">
         <v>44</v>
@@ -4291,18 +4356,18 @@
         <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
         <v>44</v>
@@ -4311,18 +4376,18 @@
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
         <v>44</v>
@@ -4331,21 +4396,21 @@
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G70" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
         <v>44</v>
@@ -4354,21 +4419,21 @@
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G71" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D72" t="s">
         <v>44</v>
@@ -4377,21 +4442,21 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D73" t="s">
         <v>44</v>
@@ -4400,21 +4465,21 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G73" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
@@ -4423,18 +4488,18 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
         <v>44</v>
@@ -4443,18 +4508,18 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A76">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>303</v>
-      </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
@@ -4463,18 +4528,18 @@
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
@@ -4483,15 +4548,15 @@
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -4503,12 +4568,12 @@
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G78">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G78">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -4517,14 +4582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
@@ -4534,7 +4599,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4557,15 +4622,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -4574,21 +4639,21 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -4597,21 +4662,21 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -4620,21 +4685,21 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -4643,21 +4708,21 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -4666,18 +4731,18 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -4689,36 +4754,36 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -4741,7 +4806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -4758,13 +4823,13 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -4781,13 +4846,13 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -4798,7 +4863,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -4807,7 +4872,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -4827,15 +4892,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -4844,18 +4909,21 @@
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+        <v>453</v>
+      </c>
+      <c r="G14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -4864,18 +4932,18 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -4884,15 +4952,21 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+        <v>456</v>
+      </c>
+      <c r="G16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -4901,10 +4975,33 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G17" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>451</v>
+      </c>
+      <c r="G18" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4913,14 +5010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
@@ -4930,7 +5027,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4953,12 +5050,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -4970,36 +5067,36 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
         <v>169</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>170</v>
       </c>
-      <c r="F3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5019,15 +5116,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -5036,13 +5133,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5065,18 +5162,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -5085,38 +5182,38 @@
         <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
@@ -5128,21 +5225,21 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -5151,13 +5248,13 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5177,12 +5274,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -5194,13 +5291,13 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5211,7 +5308,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -5220,12 +5317,12 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G13">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
@@ -5234,14 +5331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -5252,7 +5349,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5275,15 +5372,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5292,13 +5389,13 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5309,7 +5406,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -5321,7 +5418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5332,7 +5429,7 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -5341,10 +5438,10 @@
         <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5364,15 +5461,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -5381,7 +5478,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5390,24 +5487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.9375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5450,7 +5547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5461,19 +5558,19 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5484,7 +5581,7 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -5493,7 +5590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5513,7 +5610,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -5521,7 +5621,7 @@
         <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -5530,7 +5630,30 @@
         <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5539,23 +5662,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5578,7 +5701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5598,10 +5721,10 @@
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5612,7 +5735,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -5621,27 +5744,27 @@
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5650,14 +5773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -5667,7 +5790,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5690,15 +5813,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5707,10 +5830,10 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF646A0-74F9-42C9-B391-E2714427FFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F4143-2DC7-4875-8F99-B2F042C8BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="481">
   <si>
     <t>id</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Hít Thở Mỉm Cười</t>
   </si>
   <si>
-    <t>Kiên nhẫn là dấu ấn của tình thương</t>
-  </si>
-  <si>
     <t>Phan Lê Xuân Hiếu (Híu)</t>
   </si>
   <si>
@@ -284,15 +281,9 @@
     <t>Nguyễn Nhật Linh</t>
   </si>
   <si>
-    <t>Nguyễn Thị Ngọc Ánh</t>
-  </si>
-  <si>
     <t>Ánh</t>
   </si>
   <si>
-    <t>Én</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Mỹ Nhàn</t>
   </si>
   <si>
@@ -302,13 +293,7 @@
     <t>Nhuận Niệm</t>
   </si>
   <si>
-    <t>Trần Thị Như Giao</t>
-  </si>
-  <si>
     <t>Giao</t>
-  </si>
-  <si>
-    <t>Giao Trần</t>
   </si>
   <si>
     <t>Huỳnh Nguyễn Tâm Nhã</t>
@@ -1432,6 +1417,75 @@
   </si>
   <si>
     <t>Sống cùng cảm xúc</t>
+  </si>
+  <si>
+    <t>🧶</t>
+  </si>
+  <si>
+    <t>Trần  Thị Như Giao</t>
+  </si>
+  <si>
+    <t>Tử tế</t>
+  </si>
+  <si>
+    <t>./images/2022/TRAN_THI_NHU_GIAO.jpg</t>
+  </si>
+  <si>
+    <t>Trần Thị Quỳnh Phương</t>
+  </si>
+  <si>
+    <t>Mãi yêu Chánh Tâm</t>
+  </si>
+  <si>
+    <t>./images/2021/TRAN_THI_QUYNH_PHUONG.jpg</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Hoàng Giang (Long Ka)</t>
+  </si>
+  <si>
+    <t>Kết nối - Nhiệt tình - Vui vẻ - Hoà đồng</t>
+  </si>
+  <si>
+    <t>./images/2020/HOANG_GIANG.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Trang (Su)</t>
+  </si>
+  <si>
+    <t>Người hay cười 😊</t>
+  </si>
+  <si>
+    <t>./images/2024/LE_THI_HUYEN_TRANG.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Trâm Anh (Nai)</t>
+  </si>
+  <si>
+    <t>Hướng nội fulltime</t>
+  </si>
+  <si>
+    <t>./images/2025/NGUYEN_MINH_TRAM_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Võ Nguyễn Minh Châu</t>
+  </si>
+  <si>
+    <t>Introvert 🥹</t>
+  </si>
+  <si>
+    <t>./images/2023/VO_NGUYEN_MINH_CHAU.jpg</t>
+  </si>
+  <si>
+    <t>Mặt trời nhỏo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Ánh (Énn énnnnn)</t>
+  </si>
+  <si>
+    <t>./images/2022/NGUYEN_THI_NGOC_ANH.jpg</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1875,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1908,22 +1962,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,22 +1985,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
       <c r="G3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,22 +2008,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1989,10 +2043,10 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,19 +2054,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2061,22 +2115,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -2122,22 +2176,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2204,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2183,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2283,44 +2337,44 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2332,27 +2386,27 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2398,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2583,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2626,22 +2680,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,22 +2703,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -2672,22 +2726,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2695,22 +2749,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2718,22 +2772,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,22 +2795,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,22 +2818,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,22 +2841,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2810,22 +2864,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2833,22 +2887,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,19 +2910,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,22 +2930,45 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G13" t="s">
-        <v>448</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G14" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2964,7 +3041,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2972,10 +3049,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2984,10 +3061,10 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,10 +3084,10 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>458</v>
       </c>
       <c r="G4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3018,10 +3095,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3030,10 +3107,10 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3041,22 +3118,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3064,19 +3141,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,7 +3176,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3107,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -3119,10 +3196,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3222,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3153,22 +3230,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3176,22 +3253,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -3214,7 +3291,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,22 +3299,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,19 +3322,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,22 +3342,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3288,19 +3365,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3308,19 +3385,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,19 +3405,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,22 +3425,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,22 +3448,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,19 +3471,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,19 +3491,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3434,19 +3511,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3454,19 +3531,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3474,22 +3551,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,19 +3574,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3517,19 +3594,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3537,19 +3614,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3557,19 +3634,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3577,22 +3654,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,22 +3677,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3623,19 +3700,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3643,19 +3720,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3663,19 +3740,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3683,19 +3760,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,19 +3780,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3723,19 +3800,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3743,19 +3820,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3763,19 +3840,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3783,19 +3860,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3803,19 +3880,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3823,19 +3900,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,19 +3920,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3863,19 +3940,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3883,22 +3960,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3906,22 +3983,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
         <v>44</v>
       </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3929,22 +4006,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
       <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
         <v>44</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>45</v>
       </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
       <c r="G48" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3952,22 +4029,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
         <v>44</v>
       </c>
-      <c r="E49" t="s">
-        <v>45</v>
-      </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G49" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,19 +4052,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
         <v>44</v>
       </c>
-      <c r="E50" t="s">
-        <v>45</v>
-      </c>
       <c r="F50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3995,19 +4072,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
         <v>44</v>
       </c>
-      <c r="E51" t="s">
-        <v>45</v>
-      </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4015,19 +4092,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s">
         <v>44</v>
       </c>
-      <c r="E52" t="s">
-        <v>45</v>
-      </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4035,19 +4112,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" t="s">
         <v>44</v>
       </c>
-      <c r="E53" t="s">
-        <v>45</v>
-      </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4055,19 +4132,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
         <v>44</v>
       </c>
-      <c r="E54" t="s">
-        <v>45</v>
-      </c>
       <c r="F54" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,19 +4152,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
         <v>44</v>
       </c>
-      <c r="E55" t="s">
-        <v>45</v>
-      </c>
       <c r="F55" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,19 +4172,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
         <v>44</v>
       </c>
-      <c r="E56" t="s">
-        <v>45</v>
-      </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4115,22 +4192,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4138,22 +4215,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4161,19 +4238,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
         <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,19 +4258,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
         <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4201,19 +4278,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4221,19 +4298,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
         <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4241,19 +4318,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4261,22 +4338,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C64" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
         <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G64" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4284,19 +4361,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,19 +4381,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4324,19 +4401,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
         <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4344,19 +4421,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C68" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
         <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,19 +4441,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4384,22 +4461,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G70" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,22 +4484,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,22 +4507,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G72" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4453,22 +4530,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C73" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4476,19 +4553,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4496,19 +4573,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4516,19 +4593,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4536,19 +4613,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4556,19 +4633,42 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E78" t="s">
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>469</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>470</v>
+      </c>
+      <c r="G79" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -4583,10 +4683,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4624,168 +4724,168 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4808,13 +4908,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -4823,64 +4923,64 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -4889,18 +4989,18 @@
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -4909,99 +5009,122 @@
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G14" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G17" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G18" t="s">
-        <v>452</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>476</v>
+      </c>
+      <c r="G19" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -5014,14 +5137,14 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
@@ -5055,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -5067,10 +5190,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,22 +5201,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5101,19 +5224,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5121,22 +5247,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5144,22 +5270,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5167,22 +5293,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5190,22 +5316,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>239</v>
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5213,22 +5339,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>402</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5236,22 +5362,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5259,19 +5385,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5279,22 +5408,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>459</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5302,22 +5431,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>478</v>
       </c>
       <c r="G13" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -5332,21 +5461,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5377,22 +5506,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5400,22 +5529,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5423,22 +5552,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5446,10 +5575,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -5458,7 +5587,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5466,10 +5595,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -5478,7 +5607,30 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5488,19 +5640,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5532,42 +5684,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>397</v>
+      <c r="F3" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="G3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5575,19 +5727,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5595,10 +5747,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -5607,7 +5759,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5615,22 +5767,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5638,22 +5790,45 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G7" t="s">
-        <v>461</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G8" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5706,22 +5881,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5729,22 +5904,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5752,19 +5927,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5818,22 +5993,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\codect\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_LY THANH TUNG\04_LEARN\01_CODE\01_GIT\05_GIT_CHANH_TAM\hoc-chung-chanh-tam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F4143-2DC7-4875-8F99-B2F042C8BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -35,6 +34,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2022'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2023'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="537">
   <si>
     <t>id</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Thở là ra thơ</t>
   </si>
   <si>
-    <t>./images/NGUYEN_DUC_NGUYEN_THONG.jpg</t>
-  </si>
-  <si>
     <t>Hồ Thị Châu Linh</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Chân Thiện Mỹ</t>
   </si>
   <si>
-    <t>./images/DANG_HOANG_MY_CHAN.jpg</t>
-  </si>
-  <si>
     <t>Trần Thị Xuân Diệu</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>Chánh Tâm Nhỏ, Hít Thở Mỉm Cười, Tâm An</t>
   </si>
   <si>
-    <t>Siêu hướng nội</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Như Ngọc</t>
   </si>
   <si>
@@ -242,15 +233,9 @@
     <t>Trưởng ban hậu cần</t>
   </si>
   <si>
-    <t>Phan Thị Cẩm Nhi</t>
-  </si>
-  <si>
     <t>Nhuận Hỷ</t>
   </si>
   <si>
-    <t>./images/PHAN_THI_CAM_NHI.jpg</t>
-  </si>
-  <si>
     <t>Bạch Thị Thu Thảo (Tabi)</t>
   </si>
   <si>
@@ -353,9 +338,6 @@
     <t>Huyền</t>
   </si>
   <si>
-    <t>./images/DUONG_THI_THU_HUYEN.jpg</t>
-  </si>
-  <si>
     <t>Luýt</t>
   </si>
   <si>
@@ -389,9 +371,6 @@
     <t>Ban cố vấn</t>
   </si>
   <si>
-    <t>./images/TRUONG_THI_KIM_CHI.jpg</t>
-  </si>
-  <si>
     <t>Lê Thị Nhật (Nước Lọc)</t>
   </si>
   <si>
@@ -437,9 +416,6 @@
     <t>&lt;s&gt;yesterday&lt;/s&gt; NOW &lt;del&gt;tomorrow&lt;/del&gt;</t>
   </si>
   <si>
-    <t>./images/HUYNH_NGUYEN_TAM_NHA.jpg</t>
-  </si>
-  <si>
     <t>Lớp trưởng 2019-2023</t>
   </si>
   <si>
@@ -491,9 +467,6 @@
     <t>Trương Ngọc Hiếu An (Đậu)</t>
   </si>
   <si>
-    <t>./images/TRUONG_MINH_Y_TRUONG_THI_KIM_CUONG.jpg</t>
-  </si>
-  <si>
     <t>Mẹ Khoai, Đậu, Dâu Tây</t>
   </si>
   <si>
@@ -518,9 +491,6 @@
     <t>Trân</t>
   </si>
   <si>
-    <t>./images/LE_THI_THUY_TRANG.jpg</t>
-  </si>
-  <si>
     <t>Lê Thị Thuỳ Trang</t>
   </si>
   <si>
@@ -539,18 +509,12 @@
     <t>Sống chỉ đơn giản - lấy nụ cười làm căn bản</t>
   </si>
   <si>
-    <t>./images/HOANG_HUU_TUAN_VU.jpg</t>
-  </si>
-  <si>
     <t>Lê Thị Kim Ngân</t>
   </si>
   <si>
     <t>Ngân</t>
   </si>
   <si>
-    <t>./images/LE_THI_KIM_NGAN.jpg</t>
-  </si>
-  <si>
     <t>Nguyện người thường An 🍀</t>
   </si>
   <si>
@@ -572,9 +536,6 @@
     <t>Khi tâm an, đời sẽ nhẹ</t>
   </si>
   <si>
-    <t>./images/DANG_THI_THU_THANH.jpg</t>
-  </si>
-  <si>
     <t>My</t>
   </si>
   <si>
@@ -593,21 +554,12 @@
     <t>Trầm tính</t>
   </si>
   <si>
-    <t>./images/TRAN_VAN_QUANG.jpg</t>
-  </si>
-  <si>
     <t>Hoàng Ngọc Hoài An</t>
   </si>
   <si>
     <t>Mình là một người low pin nhưng high mood, nhạc là chân ái, deadline là động lực, chưa giỏi lắm nhưng vui là chính</t>
   </si>
   <si>
-    <t>./images/HOANG_NGOC_HOAI_AN.jpg</t>
-  </si>
-  <si>
-    <t>./images/LE_NGUYEN_PHUONG_MY.png</t>
-  </si>
-  <si>
     <t>Tống Văn Hùng</t>
   </si>
   <si>
@@ -617,18 +569,12 @@
     <t>Hùng hóm hỉnh</t>
   </si>
   <si>
-    <t>./images/TONG_VAN_HUNG.jpg</t>
-  </si>
-  <si>
     <t>Lê Đức Duy</t>
   </si>
   <si>
     <t>Duy</t>
   </si>
   <si>
-    <t>Duyy</t>
-  </si>
-  <si>
     <t>Trần Thị Thu Hương</t>
   </si>
   <si>
@@ -659,9 +605,6 @@
     <t>trong veo</t>
   </si>
   <si>
-    <t>./images/NGUYEN_HO_THAO_NHI.jpg</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc Thanh Thảo (naaaa)</t>
   </si>
   <si>
@@ -689,9 +632,6 @@
     <t>Biết ơn - Tĩnh lặng</t>
   </si>
   <si>
-    <t>./images/LE_THI_NHAT.jpg</t>
-  </si>
-  <si>
     <t>Trần Nguyễn Xuân Nghi</t>
   </si>
   <si>
@@ -704,9 +644,6 @@
     <t>Mặt hơi nhiều râu</t>
   </si>
   <si>
-    <t>./images/TRUONG_MINH_Y.jpg</t>
-  </si>
-  <si>
     <t>Trương Minh Ý (Ý Râu)</t>
   </si>
   <si>
@@ -725,9 +662,6 @@
     <t>Hậu cần, Diễn kịch và Nước mía</t>
   </si>
   <si>
-    <t>./images/VO_HONG_DUC.jpg</t>
-  </si>
-  <si>
     <t>Trần Thị Hà (Trần Hà)</t>
   </si>
   <si>
@@ -755,9 +689,6 @@
     <t>Nguyễn Nhật Ánh (Tia)</t>
   </si>
   <si>
-    <t>./images/NGUYEN_NHAT_ANH.jpg</t>
-  </si>
-  <si>
     <t>Dương Thị Ngọc Bích</t>
   </si>
   <si>
@@ -800,9 +731,6 @@
     <t>hướng nội ít nói</t>
   </si>
   <si>
-    <t>./images/PHAM_THI_MY_NGA.jpg</t>
-  </si>
-  <si>
     <t>Phạm Thị Mỹ Nga (Sư sư)</t>
   </si>
   <si>
@@ -891,9 +819,6 @@
   </si>
   <si>
     <t>Hiện tại mình đang sống ẩn</t>
-  </si>
-  <si>
-    <t>./images/TRAN_PHUONG_NAM.jpg</t>
   </si>
   <si>
     <t>Ban chấp hành 2022-2025</t>
@@ -1353,9 +1278,6 @@
     <t>JKL</t>
   </si>
   <si>
-    <t>./</t>
-  </si>
-  <si>
     <t>./images/2017/LY_THANH_TUNG.jpg</t>
   </si>
   <si>
@@ -1389,9 +1311,6 @@
     <t>./images/2023/TONG_HO_TRAN_TUYEN.jpg</t>
   </si>
   <si>
-    <t>Lá được ánh nắng chiếu vào</t>
-  </si>
-  <si>
     <t>./images/2023/PHAN_VIET_THI.jpg</t>
   </si>
   <si>
@@ -1486,12 +1405,261 @@
   </si>
   <si>
     <t>./images/2022/NGUYEN_THI_NGOC_ANH.jpg</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>./images/2023/DANG_HOANG_MY_CHAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/DANG_THI_THU_THANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/LE_THI_THUY_TRANG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/TRAN_VAN_QUANG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/HOANG_NGOC_HOAI_AN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/LE_NGUYEN_PHUONG_MY.png</t>
+  </si>
+  <si>
+    <t>./images/2025/NGUYEN_NHAT_ANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2025/PHAM_THI_MY_NGA.jpg</t>
+  </si>
+  <si>
+    <t>./images/2023/HUYNH_NGUYEN_TAM_NHA.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/DUONG_THI_THU_HUYEN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/VO_HONG_DUC.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/NGUYEN_HO_THAO_NHI.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/HOANG_HUU_TUAN_VU.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/NGUYEN_DUC_NGUYEN_THONG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/TRAN_PHUONG_NAM.jpg</t>
+  </si>
+  <si>
+    <t>./images/2021/LE_THI_KIM_NGAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2016/TRAN_THI_LANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2015/LE_THI_NHAT.jpg</t>
+  </si>
+  <si>
+    <t>./images/2012/TRUONG_MINH_Y.jpg</t>
+  </si>
+  <si>
+    <t>./images/2011/TONG_VAN_HUNG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2011/TRUONG_THI_KIM_CHI.jpg</t>
+  </si>
+  <si>
+    <t>./images/2011/TRUONG_THI_KIM_CUONG.jpg</t>
+  </si>
+  <si>
+    <t>Trưởng ban truyền thông 2025</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="font-size: 12px; background: linear-gradient(to right, #60a5fa, #2563eb, #1e40af);-webkit-background-clip: text;-webkit-text-fill-color: transparent; display: inline-block; filter: drop-shadow(0 10px 15px rgba(37, 99, 235, 0.3)); text-transform: uppercase; font-family: 'Inter', system-ui, -apple-system, sans-serif; "&gt;Draw Blue&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Hồ Thị Diệu Thảo (Bông)</t>
+  </si>
+  <si>
+    <t>Tâm Thuận</t>
+  </si>
+  <si>
+    <t>./images/2011/HO_THI_DIEU_THAO.jpg</t>
+  </si>
+  <si>
+    <t>./images/2012/DINH_HUNG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2014/HO_TAM_NGUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Lê Linh Đài</t>
+  </si>
+  <si>
+    <t>Đài</t>
+  </si>
+  <si>
+    <t>Quảng Hạnh</t>
+  </si>
+  <si>
+    <t>Quốc</t>
+  </si>
+  <si>
+    <t>Quảng Bảo</t>
+  </si>
+  <si>
+    <t>Trần Văn Quốc (Bi)</t>
+  </si>
+  <si>
+    <t>./images/2017/TRAN_QUOC.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Mai</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Quảng Trang</t>
+  </si>
+  <si>
+    <t>./images/2018/NGUYEN_THI_XUAN_MAI.jpg</t>
+  </si>
+  <si>
+    <t>Ngô Đức Minh Tuệ</t>
+  </si>
+  <si>
+    <t>Tuệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Quốc</t>
+  </si>
+  <si>
+    <t>Phan Văn Hưng</t>
+  </si>
+  <si>
+    <t>Nhuận Từ</t>
+  </si>
+  <si>
+    <t>./images/2021/NGUYEN_KHANH_HA.jpg</t>
+  </si>
+  <si>
+    <t>./images/2021/NGUYEN_THI_NHAT_TRAM.jpg</t>
+  </si>
+  <si>
+    <t>Lá được ánh nắng chiếu vào 🌿</t>
+  </si>
+  <si>
+    <t>Phan Thị Cẩm Nhi (Nhem cute)</t>
+  </si>
+  <si>
+    <t>Duyy BUỒN NGẨU</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hồng Ngọc (Right)</t>
+  </si>
+  <si>
+    <t>Lê  Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>Quảng Thuần</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Rin</t>
+  </si>
+  <si>
+    <t>Rin</t>
+  </si>
+  <si>
+    <t>Nguyện Thành</t>
+  </si>
+  <si>
+    <t>./images/2022/LE_THI_THANH_NHAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2022/NGUYEN_VAN_RIN.jpg</t>
+  </si>
+  <si>
+    <t>Đoàn Đại Trung Nguyên (Đức Phúc)</t>
+  </si>
+  <si>
+    <t>Nhuận Bình</t>
+  </si>
+  <si>
+    <t>./images/2023/DAI_DOAN_TRUNG_NGUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Hồ Văn Quốc Huy</t>
+  </si>
+  <si>
+    <t>Quảng Quốc</t>
+  </si>
+  <si>
+    <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Diễm Quỳnh (Cùn)</t>
+  </si>
+  <si>
+    <t>./images/2023/LE_NGUYEN_DIEM_QUYNH.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thảo Nguyên (Ốc iu)</t>
+  </si>
+  <si>
+    <t>./images/2023/LE_THAO_NGUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Ngân</t>
+  </si>
+  <si>
+    <t>Quảng Diệu</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_THI_THU_NGAN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2021/PHAN_THI_CAM_NHI.jpg</t>
+  </si>
+  <si>
+    <t>Phan Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Nhuận Hoàng</t>
+  </si>
+  <si>
+    <t>./images/2023/PHAN_THI_HUONG_GIANG.jpg</t>
+  </si>
+  <si>
+    <t>Phùng Uyển Cát Tiên</t>
+  </si>
+  <si>
+    <t>Nà Ná</t>
+  </si>
+  <si>
+    <t>./images/2023/PHUNG_UYEN_CAT_TIEN.jpg</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc Hưng (Ki)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1871,14 +2039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1888,7 +2056,7 @@
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1909,6 +2077,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -1920,21 +2091,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1956,117 +2129,161 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>478</v>
       </c>
       <c r="G3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2075,19 +2292,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2109,28 +2327,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>436</v>
+        <v>471</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2139,16 +2363,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="7" max="7" width="27.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2170,28 +2397,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>472</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2200,16 +2433,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="7" max="7" width="14.3125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2231,25 +2467,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2258,16 +2503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2287,6 +2532,32 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
@@ -2296,20 +2567,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2331,82 +2603,109 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>118</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>412</v>
+        <v>387</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2415,16 +2714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,74 +2749,112 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>476</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" t="s">
+        <v>481</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2522,21 +2863,21 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2552,6 +2893,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -2560,16 +2904,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2590,6 +2934,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -2598,16 +2945,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2628,6 +2975,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -2636,23 +2986,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.75" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2674,331 +3025,370 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="G13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="G14" t="s">
-        <v>474</v>
+        <v>447</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A79"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.75" customWidth="1"/>
-    <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3020,1660 +3410,1920 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="G5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" t="s">
+        <v>394</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>395</v>
+      </c>
+      <c r="G28" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>299</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C32" t="s">
         <v>300</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>418</v>
-      </c>
-      <c r="G14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" t="s">
-        <v>420</v>
-      </c>
-      <c r="G26" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" t="s">
-        <v>319</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C45" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>267</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" t="s">
+        <v>318</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
         <v>43</v>
       </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s">
-        <v>203</v>
-      </c>
-      <c r="G46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="G49" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" t="s">
+        <v>373</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>320</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>267</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="s">
+        <v>312</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
         <v>42</v>
       </c>
-      <c r="D48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" t="s">
-        <v>251</v>
-      </c>
-      <c r="G49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>345</v>
-      </c>
-      <c r="C50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>346</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" t="s">
-        <v>350</v>
-      </c>
-      <c r="D52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" t="s">
-        <v>352</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>353</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>354</v>
-      </c>
-      <c r="C55" t="s">
-        <v>337</v>
-      </c>
-      <c r="D55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>355</v>
-      </c>
-      <c r="C56" t="s">
-        <v>356</v>
-      </c>
-      <c r="D56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="F57" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" t="s">
+        <v>335</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>357</v>
-      </c>
-      <c r="C59" t="s">
-        <v>358</v>
-      </c>
-      <c r="D59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="s">
+        <v>333</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>359</v>
-      </c>
-      <c r="C60" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>339</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>267</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>370</v>
+      </c>
+      <c r="G65" t="s">
+        <v>366</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>267</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C69" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" t="s">
+        <v>362</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" t="s">
         <v>363</v>
       </c>
-      <c r="C61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>365</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>366</v>
-      </c>
-      <c r="C63" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>367</v>
-      </c>
-      <c r="C64" t="s">
-        <v>368</v>
-      </c>
-      <c r="D64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" t="s">
-        <v>395</v>
-      </c>
-      <c r="G64" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>369</v>
-      </c>
-      <c r="C65" t="s">
-        <v>370</v>
-      </c>
-      <c r="D65" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>372</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>373</v>
-      </c>
-      <c r="C68" t="s">
-        <v>374</v>
-      </c>
-      <c r="D68" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>267</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>267</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
         <v>146</v>
       </c>
-      <c r="G70" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" t="s">
-        <v>217</v>
-      </c>
-      <c r="D71" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>218</v>
-      </c>
-      <c r="G71" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C72" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>245</v>
-      </c>
-      <c r="G72" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>278</v>
-      </c>
-      <c r="G73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>291</v>
-      </c>
-      <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>267</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>267</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>296</v>
-      </c>
-      <c r="C77" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>469</v>
-      </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" t="s">
-        <v>470</v>
-      </c>
-      <c r="G79" t="s">
-        <v>471</v>
+      <c r="B80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C80" t="s">
+        <v>535</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G78">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G79">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -4682,14 +5332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
@@ -4699,7 +5349,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4721,426 +5371,670 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>502</v>
       </c>
       <c r="G6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="G11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="G12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G13" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="G14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="G15" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>419</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>446</v>
+        <v>233</v>
       </c>
       <c r="G18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>475</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>476</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>477</v>
+        <v>381</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>515</v>
+      </c>
+      <c r="G20" t="s">
+        <v>516</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>518</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" t="s">
+        <v>521</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>522</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G23" t="s">
+        <v>523</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>524</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>525</v>
+      </c>
+      <c r="G24" t="s">
+        <v>526</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>532</v>
+      </c>
+      <c r="G25" t="s">
+        <v>530</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>531</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>529</v>
+      </c>
+      <c r="G26" t="s">
+        <v>533</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H19">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:H19">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
@@ -5150,7 +6044,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5172,287 +6066,401 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="G6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>229</v>
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>477</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>478</v>
-      </c>
-      <c r="G13" t="s">
-        <v>480</v>
+      <c r="B16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>511</v>
+      </c>
+      <c r="G16" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition ref="E1"/>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G13">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5460,14 +6468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
@@ -5478,7 +6486,7 @@
     <col min="7" max="7" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5500,137 +6508,184 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
       <c r="G3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>501</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="G6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>463</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>464</v>
+        <v>527</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5639,24 +6694,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
-    <col min="7" max="7" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5678,157 +6733,250 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="G7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="G8" t="s">
-        <v>468</v>
+        <v>441</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5837,23 +6985,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5875,71 +7023,106 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
       <c r="G2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>413</v>
+        <v>388</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5948,14 +7131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -5965,7 +7148,7 @@
     <col min="7" max="7" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5987,28 +7170,60 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>374</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -3374,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5335,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5507,19 +5507,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>386</v>
+        <v>424</v>
+      </c>
+      <c r="G7" t="s">
+        <v>425</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5530,19 +5533,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5553,22 +5556,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" t="s">
-        <v>406</v>
+        <v>85</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -5579,22 +5579,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -5605,22 +5605,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>449</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -5631,22 +5631,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>449</v>
       </c>
       <c r="G12" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -5657,22 +5657,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -5683,22 +5683,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -5709,22 +5709,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="G15" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -5813,25 +5813,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>515</v>
       </c>
       <c r="G19" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
@@ -5839,25 +5839,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
-      </c>
-      <c r="G20" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
@@ -5865,19 +5862,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>518</v>
+        <v>391</v>
+      </c>
+      <c r="G21" t="s">
+        <v>521</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -5888,22 +5888,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>391</v>
       </c>
       <c r="G22" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -5914,22 +5914,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>391</v>
+        <v>525</v>
       </c>
       <c r="G23" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -5940,25 +5940,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="G24" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
@@ -5966,25 +5966,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G25" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -5992,30 +5992,30 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>531</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>529</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>533</v>
+        <v>381</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
-    <sortState ref="A2:H19">
+    <sortState ref="A2:H26">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -6031,7 +6031,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6698,7 +6698,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="591">
   <si>
     <t>id</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Ngọc</t>
-  </si>
-  <si>
-    <t>Shark Long</t>
   </si>
   <si>
     <t>Mỹ</t>
@@ -1086,9 +1083,6 @@
     <t>Nguyễn Tấn Nhật Huy</t>
   </si>
   <si>
-    <t>Châu Bảo Anh</t>
-  </si>
-  <si>
     <t>Trần Hoàng Thanh Hải</t>
   </si>
   <si>
@@ -1239,9 +1233,6 @@
     <t>Phan Thị Quỳnh Trâm</t>
   </si>
   <si>
-    <t>./images/2023/PHAN_THI_QUYNH_TRAM.jpg</t>
-  </si>
-  <si>
     <t>Quỳnh Trâm</t>
   </si>
   <si>
@@ -1479,9 +1470,6 @@
     <t>Trưởng ban truyền thông 2025</t>
   </si>
   <si>
-    <t>&lt;h1 style="font-size: 12px; background: linear-gradient(to right, #60a5fa, #2563eb, #1e40af);-webkit-background-clip: text;-webkit-text-fill-color: transparent; display: inline-block; filter: drop-shadow(0 10px 15px rgba(37, 99, 235, 0.3)); text-transform: uppercase; font-family: 'Inter', system-ui, -apple-system, sans-serif; "&gt;Draw Blue&lt;/h1&gt;</t>
-  </si>
-  <si>
     <t>Hồ Thị Diệu Thảo (Bông)</t>
   </si>
   <si>
@@ -1654,6 +1642,180 @@
   </si>
   <si>
     <t>Nguyễn Phúc Hưng (Ki)</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_THI_THU_HONG.jpg</t>
+  </si>
+  <si>
+    <t>./images/2024/LE_THI_KIM_ANH.jpg</t>
+  </si>
+  <si>
+    <t>./images/2024/CHAU_BAO_ANH.jpg_x000D_</t>
+  </si>
+  <si>
+    <t>Vạn Thông</t>
+  </si>
+  <si>
+    <t>Châu Bảo Anh (May)</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>./images/2022/NGUYEN_THI_MY_DUYEN.jpg</t>
+  </si>
+  <si>
+    <t>Phan Thị Thanh Hồng</t>
+  </si>
+  <si>
+    <t>Quảng Tuyết</t>
+  </si>
+  <si>
+    <t>./images/2011/PHAN_THI_THANH_HONG.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh Nhân</t>
+  </si>
+  <si>
+    <t>Bông 🌸</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_THI_QUYNH_NHAN.jpg</t>
+  </si>
+  <si>
+    <t>Phạm Văn Quốc Tấn</t>
+  </si>
+  <si>
+    <t>Tấn</t>
+  </si>
+  <si>
+    <t>Quảng Đạt</t>
+  </si>
+  <si>
+    <t>./images/2024/PHAM_VAN_QUOC_TAN.jpg</t>
+  </si>
+  <si>
+    <t>Phan Văn Đạt</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>./images/2024/PHAN_VAN_DAT.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Quân</t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_ANH_QUAN.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thuỳ</t>
+  </si>
+  <si>
+    <t>Thuỳ</t>
+  </si>
+  <si>
+    <t>./images/2023/NGUYEN_THI_THUY.jpg</t>
+  </si>
+  <si>
+    <t>Quảng Lan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Thảo</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_THI_THU_THAO.jpg</t>
+  </si>
+  <si>
+    <t>Đặng Hoàng Hoài Thư</t>
+  </si>
+  <si>
+    <t>Thực tập Ban chấp hành</t>
+  </si>
+  <si>
+    <t>./images/2024/DANG_HOANG_HOAI_THU.jpg</t>
+  </si>
+  <si>
+    <t>Tuyết</t>
+  </si>
+  <si>
+    <t>Nguyên Lan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ánh Tuyết (Út)</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_THI_ANH_TUYET.jpg</t>
+  </si>
+  <si>
+    <t>./images/2020/NGUYEN_THI_MY_NHAN.jpg</t>
+  </si>
+  <si>
+    <t>Vạn</t>
+  </si>
+  <si>
+    <t>Lê Văn Nhất Vạn (Mười)</t>
+  </si>
+  <si>
+    <t>Yến</t>
+  </si>
+  <si>
+    <t>Võ Thị Kiều Yến</t>
+  </si>
+  <si>
+    <t>Quãng Ngọc</t>
+  </si>
+  <si>
+    <t>Đinh Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Banh</t>
+  </si>
+  <si>
+    <t>./images/2020/DINH_THI_NGOC_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Thuỷ</t>
+  </si>
+  <si>
+    <t>Thuỷ</t>
+  </si>
+  <si>
+    <t>Thể Tường</t>
+  </si>
+  <si>
+    <t>Như Tiên</t>
+  </si>
+  <si>
+    <t>./images/2024/VO_THI_KIEU_YEN.jpg</t>
+  </si>
+  <si>
+    <t>./images/2024/LE_THI_THU_THUY.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đăng Nhi</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_THI_DANG_NHI.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Hiền (Bo)</t>
+  </si>
+  <si>
+    <t>Quảng Tịnh</t>
+  </si>
+  <si>
+    <t>./images/2019/NGUYEN_THI_THANH_HIEN.jpg</t>
+  </si>
+  <si>
+    <t>🎨🌧️🎧</t>
   </si>
 </sst>
 </file>
@@ -1695,12 +1857,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2094,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2130,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2138,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
         <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2150,10 +2313,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2176,10 +2339,10 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>590</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2190,10 +2353,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -2202,10 +2365,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2216,10 +2379,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2228,10 +2391,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2242,19 +2405,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -2265,10 +2428,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -2277,10 +2440,10 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -2328,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2336,22 +2499,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2398,7 +2561,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2406,22 +2569,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2468,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2476,22 +2639,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2535,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2543,19 +2706,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2604,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2612,22 +2775,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2638,22 +2801,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2664,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2676,7 +2839,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2687,22 +2850,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2715,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2750,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2758,22 +2921,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
         <v>172</v>
       </c>
-      <c r="C2" t="s">
-        <v>173</v>
-      </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2784,22 +2947,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2810,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2836,10 +2999,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -2848,13 +3011,36 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2895,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3163,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -3034,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -3046,10 +3232,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -3060,10 +3246,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -3072,10 +3258,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -3086,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -3098,10 +3284,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -3112,10 +3298,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3124,10 +3310,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -3138,10 +3324,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -3150,10 +3336,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -3164,10 +3350,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -3176,10 +3362,10 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -3190,10 +3376,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
         <v>229</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -3202,10 +3388,10 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -3216,10 +3402,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -3228,10 +3414,10 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3242,10 +3428,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
         <v>241</v>
-      </c>
-      <c r="C10" t="s">
-        <v>242</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -3254,10 +3440,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -3268,10 +3454,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
         <v>244</v>
-      </c>
-      <c r="C11" t="s">
-        <v>245</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -3280,10 +3466,10 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -3294,10 +3480,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -3306,7 +3492,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -3317,10 +3503,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -3329,10 +3515,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -3343,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3355,10 +3541,10 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3372,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3411,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -3434,7 +3620,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -3445,10 +3631,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -3457,10 +3643,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -3483,10 +3669,10 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -3497,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -3509,10 +3695,10 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -3523,10 +3709,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -3535,10 +3721,10 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -3549,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3561,7 +3747,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -3587,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -3598,10 +3784,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
         <v>177</v>
-      </c>
-      <c r="C9" t="s">
-        <v>178</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -3610,10 +3796,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -3639,7 +3825,7 @@
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -3665,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -3688,10 +3874,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -3702,10 +3888,10 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -3714,10 +3900,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -3728,10 +3914,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -3740,10 +3926,10 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3754,7 +3940,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3766,10 +3952,10 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -3780,10 +3966,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
         <v>274</v>
-      </c>
-      <c r="C16" t="s">
-        <v>275</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -3792,10 +3978,10 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -3806,7 +3992,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -3818,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -3829,10 +4015,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" t="s">
         <v>209</v>
-      </c>
-      <c r="C18" t="s">
-        <v>210</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -3841,10 +4027,10 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3855,10 +4041,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -3867,7 +4053,7 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -3878,10 +4064,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
         <v>281</v>
-      </c>
-      <c r="C20" t="s">
-        <v>282</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
@@ -3890,7 +4076,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -3901,10 +4087,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" t="s">
         <v>283</v>
-      </c>
-      <c r="C21" t="s">
-        <v>284</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -3913,7 +4099,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3924,10 +4110,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" t="s">
         <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>216</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -3936,10 +4122,10 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -3950,10 +4136,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="s">
         <v>249</v>
-      </c>
-      <c r="C23" t="s">
-        <v>250</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -3962,10 +4148,10 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -3976,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -3988,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -3999,10 +4185,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -4011,7 +4197,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -4022,10 +4208,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
@@ -4034,7 +4220,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -4045,10 +4231,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -4057,7 +4243,7 @@
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -4068,10 +4254,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" t="s">
         <v>290</v>
-      </c>
-      <c r="C28" t="s">
-        <v>291</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -4080,10 +4266,10 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -4094,10 +4280,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" t="s">
         <v>293</v>
-      </c>
-      <c r="C29" t="s">
-        <v>294</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -4106,7 +4292,7 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -4117,10 +4303,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>296</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -4129,7 +4315,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -4140,7 +4326,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -4152,7 +4338,7 @@
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -4163,10 +4349,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" t="s">
         <v>299</v>
-      </c>
-      <c r="C32" t="s">
-        <v>300</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -4175,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -4186,10 +4372,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -4198,10 +4384,10 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -4212,7 +4398,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -4224,7 +4410,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -4235,10 +4421,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" t="s">
         <v>302</v>
-      </c>
-      <c r="C35" t="s">
-        <v>303</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -4247,7 +4433,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -4258,7 +4444,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -4270,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -4281,7 +4467,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4293,7 +4479,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -4304,10 +4490,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -4316,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -4327,10 +4513,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="s">
         <v>307</v>
-      </c>
-      <c r="C39" t="s">
-        <v>308</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -4339,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -4350,10 +4536,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -4362,7 +4548,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4373,10 +4559,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -4385,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4396,10 +4582,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" t="s">
         <v>311</v>
-      </c>
-      <c r="C42" t="s">
-        <v>312</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -4408,7 +4594,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4419,10 +4605,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -4431,7 +4617,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4442,10 +4628,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -4454,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4465,7 +4651,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -4477,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -4488,10 +4674,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
         <v>316</v>
-      </c>
-      <c r="C46" t="s">
-        <v>317</v>
       </c>
       <c r="D46" t="s">
         <v>41</v>
@@ -4500,7 +4686,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -4511,10 +4697,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>41</v>
@@ -4523,10 +4709,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -4537,7 +4723,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
@@ -4549,10 +4735,10 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -4578,7 +4764,7 @@
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4589,10 +4775,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" t="s">
         <v>226</v>
-      </c>
-      <c r="C50" t="s">
-        <v>227</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
@@ -4601,10 +4787,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -4615,10 +4801,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
@@ -4627,7 +4813,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -4638,7 +4824,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -4650,7 +4836,10 @@
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="G52" t="s">
+        <v>534</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -4661,10 +4850,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" t="s">
         <v>324</v>
-      </c>
-      <c r="C53" t="s">
-        <v>325</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
@@ -4673,7 +4862,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -4684,10 +4873,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" t="s">
         <v>326</v>
-      </c>
-      <c r="C54" t="s">
-        <v>327</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -4696,7 +4885,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -4707,7 +4896,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -4719,7 +4908,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -4730,10 +4919,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -4742,7 +4931,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -4753,10 +4942,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
         <v>330</v>
-      </c>
-      <c r="C57" t="s">
-        <v>331</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
@@ -4765,7 +4954,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -4776,10 +4965,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
@@ -4788,10 +4977,10 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -4802,10 +4991,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
@@ -4814,10 +5003,10 @@
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -4828,10 +5017,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" t="s">
         <v>332</v>
-      </c>
-      <c r="C60" t="s">
-        <v>333</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
@@ -4840,7 +5029,10 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="G60" t="s">
+        <v>533</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -4851,10 +5043,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
@@ -4863,7 +5055,7 @@
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -4874,10 +5066,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
         <v>41</v>
@@ -4886,7 +5078,7 @@
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -4897,10 +5089,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
@@ -4909,7 +5101,7 @@
         <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -4920,10 +5112,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
@@ -4932,7 +5124,7 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -4943,10 +5135,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>341</v>
+      </c>
+      <c r="C65" t="s">
         <v>342</v>
-      </c>
-      <c r="C65" t="s">
-        <v>343</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
@@ -4955,10 +5147,10 @@
         <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G65" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -4969,10 +5161,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66" t="s">
         <v>344</v>
-      </c>
-      <c r="C66" t="s">
-        <v>345</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
@@ -4981,7 +5173,7 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -4992,10 +5184,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
@@ -5004,7 +5196,7 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -5015,7 +5207,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
+        <v>537</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5027,7 +5219,10 @@
         <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>536</v>
+      </c>
+      <c r="G68" t="s">
+        <v>535</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -5038,10 +5233,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
@@ -5050,7 +5245,7 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -5061,10 +5256,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
@@ -5073,7 +5268,7 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -5084,10 +5279,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
@@ -5096,10 +5291,10 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G71" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -5110,10 +5305,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
         <v>196</v>
-      </c>
-      <c r="C72" t="s">
-        <v>197</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -5122,10 +5317,10 @@
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -5136,10 +5331,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
         <v>220</v>
-      </c>
-      <c r="C73" t="s">
-        <v>221</v>
       </c>
       <c r="D73" t="s">
         <v>41</v>
@@ -5148,10 +5343,10 @@
         <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G73" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -5162,10 +5357,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
@@ -5174,10 +5369,10 @@
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -5188,10 +5383,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
@@ -5200,7 +5395,7 @@
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -5211,10 +5406,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" t="s">
         <v>268</v>
-      </c>
-      <c r="C76" t="s">
-        <v>269</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
@@ -5223,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -5234,10 +5429,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
@@ -5246,7 +5441,7 @@
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -5257,10 +5452,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" t="s">
         <v>271</v>
-      </c>
-      <c r="C78" t="s">
-        <v>272</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
@@ -5269,7 +5464,7 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -5280,10 +5475,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
@@ -5292,7 +5487,7 @@
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -5303,10 +5498,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C80" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
@@ -5315,10 +5510,244 @@
         <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H80">
         <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>543</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" t="s">
+        <v>545</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>546</v>
+      </c>
+      <c r="C82" t="s">
+        <v>547</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>548</v>
+      </c>
+      <c r="G82" t="s">
+        <v>549</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>550</v>
+      </c>
+      <c r="C83" t="s">
+        <v>551</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" t="s">
+        <v>552</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>561</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" t="s">
+        <v>562</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>563</v>
+      </c>
+      <c r="C85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" t="s">
+        <v>565</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>568</v>
+      </c>
+      <c r="C86" t="s">
+        <v>566</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>567</v>
+      </c>
+      <c r="G86" t="s">
+        <v>569</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>574</v>
+      </c>
+      <c r="C87" t="s">
+        <v>573</v>
+      </c>
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" t="s">
+        <v>575</v>
+      </c>
+      <c r="G87" t="s">
+        <v>583</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>579</v>
+      </c>
+      <c r="C88" t="s">
+        <v>580</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>582</v>
+      </c>
+      <c r="G88" t="s">
+        <v>584</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>585</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>581</v>
+      </c>
+      <c r="G89" t="s">
+        <v>586</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5328,15 +5757,16 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5372,7 +5802,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -5395,7 +5825,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -5406,10 +5836,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -5418,10 +5848,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -5432,10 +5862,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -5444,7 +5874,7 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5455,10 +5885,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -5467,10 +5897,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -5481,10 +5911,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -5493,10 +5923,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5507,10 +5937,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -5519,10 +5949,10 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5533,19 +5963,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5556,19 +5986,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -5579,22 +6009,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -5605,7 +6035,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -5617,10 +6047,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -5631,10 +6061,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -5643,10 +6073,10 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -5657,10 +6087,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
         <v>189</v>
-      </c>
-      <c r="C13" t="s">
-        <v>190</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -5669,10 +6099,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -5683,10 +6113,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
         <v>201</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -5695,10 +6125,10 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -5709,10 +6139,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -5721,10 +6151,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>399</v>
-      </c>
-      <c r="G15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -5735,10 +6162,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
         <v>192</v>
-      </c>
-      <c r="C16" t="s">
-        <v>193</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -5747,10 +6174,10 @@
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -5761,10 +6188,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -5773,10 +6200,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -5787,10 +6214,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -5799,10 +6226,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -5813,10 +6240,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -5825,10 +6252,10 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G19" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -5839,10 +6266,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
@@ -5851,7 +6278,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -5862,10 +6289,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -5874,10 +6301,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G21" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -5888,10 +6315,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -5900,10 +6327,10 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -5914,10 +6341,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -5926,10 +6353,10 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G23" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -5940,10 +6367,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -5952,10 +6379,10 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G24" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -5966,10 +6393,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -5978,10 +6405,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" t="s">
         <v>529</v>
-      </c>
-      <c r="G25" t="s">
-        <v>533</v>
       </c>
       <c r="H25">
         <v>7</v>
@@ -5992,25 +6419,97 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H26">
         <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" t="s">
+        <v>554</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>555</v>
+      </c>
+      <c r="G27" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>559</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" t="s">
+        <v>571</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -6028,10 +6527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6067,7 +6566,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -6075,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -6087,10 +6586,10 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -6101,10 +6600,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -6113,10 +6612,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -6127,7 +6626,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -6139,10 +6638,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -6153,10 +6652,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -6165,10 +6664,10 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -6179,10 +6678,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -6191,10 +6690,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -6211,7 +6710,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -6220,7 +6719,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -6231,22 +6730,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -6257,22 +6756,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
-        <v>154</v>
-      </c>
       <c r="G9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -6283,10 +6782,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -6295,10 +6794,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -6309,10 +6808,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -6321,10 +6820,10 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6341,7 +6840,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -6350,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -6361,22 +6860,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -6387,7 +6886,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -6399,7 +6898,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -6410,10 +6909,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -6422,10 +6921,10 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
+        <v>504</v>
+      </c>
+      <c r="G15" t="s">
         <v>508</v>
-      </c>
-      <c r="G15" t="s">
-        <v>512</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -6436,10 +6935,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -6448,13 +6947,36 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H16">
         <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" t="s">
+        <v>539</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6509,7 +7031,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -6517,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -6529,10 +7051,10 @@
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -6543,22 +7065,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -6569,22 +7091,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -6595,10 +7117,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -6607,10 +7129,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -6621,10 +7143,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -6633,10 +7155,10 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -6647,22 +7169,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -6673,7 +7195,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -6685,7 +7207,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6695,10 +7217,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6708,7 +7230,7 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
-    <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
@@ -6734,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -6765,22 +7287,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -6791,19 +7313,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -6814,19 +7336,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -6837,22 +7362,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -6863,10 +7388,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -6875,24 +7400,24 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -6900,11 +7425,11 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>440</v>
+      <c r="F8" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="G8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -6915,10 +7440,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -6927,7 +7452,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -6938,10 +7463,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -6950,7 +7475,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -6961,10 +7486,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -6973,9 +7498,35 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>577</v>
+      </c>
+      <c r="G12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H12">
         <v>7</v>
       </c>
     </row>
@@ -6986,10 +7537,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6998,7 +7549,7 @@
     <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.9375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
@@ -7024,7 +7575,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -7032,22 +7583,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -7064,16 +7615,16 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>560</v>
       </c>
       <c r="G3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -7084,19 +7635,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -7107,10 +7658,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -7119,9 +7670,35 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
     </row>
@@ -7171,7 +7748,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -7179,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -7191,10 +7768,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -7205,22 +7782,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H3">
         <v>6</v>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="589">
   <si>
     <t>id</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>Lê Thị Huyền Trang (Suu)</t>
-  </si>
-  <si>
-    <t>Ain't no fun in easy!</t>
   </si>
   <si>
     <t>Đức</t>
@@ -1360,9 +1357,6 @@
   </si>
   <si>
     <t>./images/2020/HOANG_GIANG.jpg</t>
-  </si>
-  <si>
-    <t>Lê Thị Huyền Trang (Su)</t>
   </si>
   <si>
     <t>Người hay cười 😊</t>
@@ -2242,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2293,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2301,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -2313,10 +2307,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2339,10 +2333,10 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2353,10 +2347,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -2365,10 +2359,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2394,7 +2388,7 @@
         <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2428,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -2440,10 +2434,10 @@
         <v>36</v>
       </c>
       <c r="F7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" t="s">
         <v>484</v>
-      </c>
-      <c r="G7" t="s">
-        <v>486</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -2491,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2514,7 +2508,7 @@
         <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2561,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2575,16 +2569,16 @@
         <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2631,7 +2625,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2645,7 +2639,7 @@
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2654,7 +2648,7 @@
         <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2698,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2706,19 +2700,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
         <v>480</v>
-      </c>
-      <c r="C2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" t="s">
-        <v>482</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2767,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2775,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
@@ -2787,10 +2781,10 @@
         <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2816,7 +2810,7 @@
         <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2865,7 +2859,7 @@
         <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2913,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -2921,10 +2915,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>107</v>
@@ -2933,10 +2927,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2962,7 +2956,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2988,7 +2982,7 @@
         <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2999,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -3011,10 +3005,10 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -3022,10 +3016,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -3034,10 +3028,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -3063,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3081,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -3220,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>141</v>
@@ -3232,10 +3226,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -3246,10 +3240,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -3258,10 +3252,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -3272,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>138</v>
@@ -3284,10 +3278,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -3298,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -3310,10 +3304,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -3324,10 +3318,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -3336,10 +3330,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -3350,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
@@ -3362,10 +3356,10 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -3376,10 +3370,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
         <v>228</v>
-      </c>
-      <c r="C8" t="s">
-        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -3388,10 +3382,10 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -3402,10 +3396,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -3414,10 +3408,10 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -3428,10 +3422,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s">
         <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>241</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -3440,10 +3434,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -3454,10 +3448,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
         <v>243</v>
-      </c>
-      <c r="C11" t="s">
-        <v>244</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -3466,10 +3460,10 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -3480,10 +3474,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -3492,7 +3486,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -3503,10 +3497,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -3515,10 +3509,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -3529,7 +3523,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3541,10 +3535,10 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3558,10 +3552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3597,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -3620,7 +3614,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -3631,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -3643,10 +3637,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -3669,10 +3663,10 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -3683,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -3695,10 +3689,10 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -3709,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -3721,10 +3715,10 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -3735,10 +3729,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
         <v>405</v>
-      </c>
-      <c r="C7" t="s">
-        <v>406</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3747,7 +3741,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -3773,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -3784,10 +3778,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -3796,10 +3790,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -3825,7 +3819,7 @@
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -3851,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -3874,10 +3868,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -3888,7 +3882,7 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -3900,13 +3894,13 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
@@ -3914,7 +3908,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -3926,10 +3920,10 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3940,7 +3934,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3952,10 +3946,10 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -3966,10 +3960,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" t="s">
         <v>273</v>
-      </c>
-      <c r="C16" t="s">
-        <v>274</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -3978,10 +3972,10 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" t="s">
         <v>391</v>
-      </c>
-      <c r="G16" t="s">
-        <v>392</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -3992,7 +3986,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -4004,7 +3998,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -4015,10 +4009,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
         <v>208</v>
-      </c>
-      <c r="C18" t="s">
-        <v>209</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -4027,10 +4021,10 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -4041,10 +4035,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -4053,7 +4047,7 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -4064,10 +4058,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" t="s">
         <v>280</v>
-      </c>
-      <c r="C20" t="s">
-        <v>281</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
@@ -4076,7 +4070,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -4087,10 +4081,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" t="s">
         <v>282</v>
-      </c>
-      <c r="C21" t="s">
-        <v>283</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -4099,7 +4093,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -4110,10 +4104,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
         <v>214</v>
-      </c>
-      <c r="C22" t="s">
-        <v>215</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -4122,10 +4116,10 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -4136,10 +4130,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
         <v>248</v>
-      </c>
-      <c r="C23" t="s">
-        <v>249</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -4148,10 +4142,10 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -4162,7 +4156,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -4174,7 +4168,7 @@
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -4185,7 +4179,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -4197,7 +4191,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -4208,7 +4202,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
         <v>110</v>
@@ -4220,7 +4214,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -4231,10 +4225,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -4243,7 +4237,7 @@
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -4254,10 +4248,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" t="s">
         <v>289</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -4266,10 +4260,10 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G28" t="s">
         <v>393</v>
-      </c>
-      <c r="G28" t="s">
-        <v>394</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -4280,10 +4274,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" t="s">
         <v>292</v>
-      </c>
-      <c r="C29" t="s">
-        <v>293</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -4292,7 +4286,7 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -4303,10 +4297,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
         <v>294</v>
-      </c>
-      <c r="C30" t="s">
-        <v>295</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -4315,7 +4309,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -4326,7 +4320,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -4338,7 +4332,7 @@
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -4349,10 +4343,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" t="s">
         <v>298</v>
-      </c>
-      <c r="C32" t="s">
-        <v>299</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -4361,7 +4355,7 @@
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -4372,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -4384,10 +4378,10 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -4398,7 +4392,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -4410,7 +4404,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -4421,10 +4415,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" t="s">
         <v>301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>302</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -4433,7 +4427,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -4444,7 +4438,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -4456,7 +4450,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -4467,7 +4461,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4479,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -4490,10 +4484,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -4502,7 +4496,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -4513,10 +4507,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" t="s">
         <v>306</v>
-      </c>
-      <c r="C39" t="s">
-        <v>307</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -4525,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -4536,7 +4530,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -4548,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4559,7 +4553,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
@@ -4571,7 +4565,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4582,10 +4576,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" t="s">
         <v>310</v>
-      </c>
-      <c r="C42" t="s">
-        <v>311</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -4594,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4605,10 +4599,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -4617,7 +4611,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4628,7 +4622,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
@@ -4640,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -4651,7 +4645,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -4663,7 +4657,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -4674,10 +4668,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" t="s">
         <v>315</v>
-      </c>
-      <c r="C46" t="s">
-        <v>316</v>
       </c>
       <c r="D46" t="s">
         <v>41</v>
@@ -4686,7 +4680,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -4697,7 +4691,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
@@ -4709,10 +4703,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -4738,7 +4732,7 @@
         <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -4764,7 +4758,7 @@
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -4775,10 +4769,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
         <v>225</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
@@ -4787,10 +4781,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -4801,10 +4795,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
@@ -4813,7 +4807,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -4824,7 +4818,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -4836,10 +4830,10 @@
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G52" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -4850,10 +4844,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" t="s">
         <v>323</v>
-      </c>
-      <c r="C53" t="s">
-        <v>324</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
@@ -4862,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -4873,10 +4867,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" t="s">
         <v>325</v>
-      </c>
-      <c r="C54" t="s">
-        <v>326</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -4885,7 +4879,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -4896,7 +4890,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -4908,7 +4902,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -4919,10 +4913,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -4931,7 +4925,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -4942,10 +4936,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" t="s">
         <v>329</v>
-      </c>
-      <c r="C57" t="s">
-        <v>330</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
@@ -4954,7 +4948,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -4965,10 +4959,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
@@ -4977,10 +4971,10 @@
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -4991,10 +4985,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
@@ -5003,10 +4997,10 @@
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5017,10 +5011,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" t="s">
         <v>331</v>
-      </c>
-      <c r="C60" t="s">
-        <v>332</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
@@ -5029,10 +5023,10 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -5043,10 +5037,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
@@ -5055,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -5066,7 +5060,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62" t="s">
         <v>88</v>
@@ -5078,7 +5072,7 @@
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -5089,7 +5083,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
@@ -5101,7 +5095,7 @@
         <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -5112,10 +5106,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
@@ -5124,7 +5118,7 @@
         <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -5135,10 +5129,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>340</v>
+      </c>
+      <c r="C65" t="s">
         <v>341</v>
-      </c>
-      <c r="C65" t="s">
-        <v>342</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
@@ -5147,10 +5141,10 @@
         <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -5161,10 +5155,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" t="s">
         <v>343</v>
-      </c>
-      <c r="C66" t="s">
-        <v>344</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
@@ -5173,7 +5167,7 @@
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -5184,7 +5178,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
@@ -5196,7 +5190,7 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -5207,7 +5201,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5219,10 +5213,10 @@
         <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G68" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -5233,10 +5227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" t="s">
         <v>346</v>
-      </c>
-      <c r="C69" t="s">
-        <v>347</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
@@ -5245,7 +5239,7 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -5256,19 +5250,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="G70" t="s">
+        <v>358</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -5279,10 +5276,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
@@ -5291,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="G71" t="s">
         <v>359</v>
@@ -5305,10 +5302,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -5317,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G72" t="s">
         <v>360</v>
@@ -5331,10 +5328,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D73" t="s">
         <v>41</v>
@@ -5343,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G73" t="s">
         <v>361</v>
@@ -5357,10 +5354,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
@@ -5369,10 +5366,7 @@
         <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
-      </c>
-      <c r="G74" t="s">
-        <v>362</v>
+        <v>265</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -5383,10 +5377,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
@@ -5395,7 +5389,7 @@
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -5406,10 +5400,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
@@ -5418,7 +5412,7 @@
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -5432,7 +5426,7 @@
         <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
@@ -5441,7 +5435,7 @@
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -5452,10 +5446,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C78" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
@@ -5464,7 +5458,7 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -5475,22 +5469,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
@@ -5498,19 +5492,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C80" t="s">
-        <v>531</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>542</v>
+      </c>
+      <c r="G80" t="s">
+        <v>543</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -5521,10 +5518,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>545</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
@@ -5533,13 +5530,13 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G81" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.5">
@@ -5547,25 +5544,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C82" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>548</v>
+        <v>265</v>
       </c>
       <c r="G82" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.5">
@@ -5573,22 +5570,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C83" t="s">
-        <v>551</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G83" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H83">
         <v>7</v>
@@ -5602,22 +5599,22 @@
         <v>561</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>562</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G84" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.5">
@@ -5625,25 +5622,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>564</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>565</v>
       </c>
       <c r="G85" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.5">
@@ -5651,10 +5648,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C86" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
@@ -5663,10 +5660,10 @@
         <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G86" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="H86">
         <v>6</v>
@@ -5677,25 +5674,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C87" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.5">
@@ -5703,50 +5700,24 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>583</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
         <v>579</v>
-      </c>
-      <c r="C88" t="s">
-        <v>580</v>
-      </c>
-      <c r="D88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" t="s">
-        <v>582</v>
       </c>
       <c r="G88" t="s">
         <v>584</v>
       </c>
       <c r="H88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>585</v>
-      </c>
-      <c r="C89" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>581</v>
-      </c>
-      <c r="G89" t="s">
-        <v>586</v>
-      </c>
-      <c r="H89">
         <v>6</v>
       </c>
     </row>
@@ -5765,8 +5736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5802,7 +5773,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -5825,7 +5796,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -5836,10 +5807,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -5848,10 +5819,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -5900,7 +5871,7 @@
         <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -5911,7 +5882,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -5923,10 +5894,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5949,10 +5920,10 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" t="s">
         <v>421</v>
-      </c>
-      <c r="G7" t="s">
-        <v>422</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5969,13 +5940,13 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5992,7 +5963,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -6015,7 +5986,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -6024,7 +5995,7 @@
         <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -6035,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -6047,10 +6018,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6061,10 +6032,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -6073,10 +6044,10 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -6087,10 +6058,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" t="s">
         <v>188</v>
-      </c>
-      <c r="C13" t="s">
-        <v>189</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -6099,10 +6070,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -6113,10 +6084,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
         <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>201</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -6125,10 +6096,10 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -6139,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -6151,7 +6122,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -6162,10 +6133,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
         <v>191</v>
-      </c>
-      <c r="C16" t="s">
-        <v>192</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -6174,10 +6145,10 @@
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -6188,10 +6159,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" t="s">
         <v>415</v>
-      </c>
-      <c r="C17" t="s">
-        <v>416</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -6200,10 +6171,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" t="s">
         <v>417</v>
-      </c>
-      <c r="G17" t="s">
-        <v>418</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -6214,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
         <v>110</v>
@@ -6226,10 +6197,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -6240,7 +6211,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
@@ -6252,10 +6223,10 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -6266,7 +6237,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C20" t="s">
         <v>66</v>
@@ -6278,7 +6249,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -6289,10 +6260,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -6301,10 +6272,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -6315,7 +6286,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
@@ -6327,10 +6298,10 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -6341,10 +6312,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -6353,10 +6324,10 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -6367,10 +6338,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -6379,10 +6350,10 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -6393,7 +6364,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C25" t="s">
         <v>118</v>
@@ -6405,10 +6376,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H25">
         <v>7</v>
@@ -6434,7 +6405,7 @@
         <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -6445,10 +6416,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -6457,10 +6428,10 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -6471,10 +6442,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -6483,10 +6454,10 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -6497,10 +6468,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -6509,7 +6480,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -6566,7 +6537,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -6589,7 +6560,7 @@
         <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -6600,7 +6571,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -6612,10 +6583,10 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -6638,10 +6609,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -6652,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -6664,10 +6635,10 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" t="s">
         <v>430</v>
-      </c>
-      <c r="G5" t="s">
-        <v>431</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -6678,7 +6649,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -6690,10 +6661,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G6" t="s">
         <v>448</v>
-      </c>
-      <c r="G6" t="s">
-        <v>450</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -6710,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -6719,7 +6690,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -6736,16 +6707,16 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -6756,22 +6727,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" t="s">
-        <v>153</v>
-      </c>
       <c r="G9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -6782,10 +6753,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -6794,10 +6765,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -6808,10 +6779,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -6820,10 +6791,10 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -6840,7 +6811,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -6849,7 +6820,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -6860,13 +6831,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -6875,7 +6846,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -6886,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -6898,7 +6869,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -6909,7 +6880,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -6921,10 +6892,10 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -6935,10 +6906,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -6947,10 +6918,10 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" t="s">
         <v>507</v>
-      </c>
-      <c r="G16" t="s">
-        <v>509</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -6958,7 +6929,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -6970,10 +6941,10 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -7031,7 +7002,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -7039,10 +7010,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -7051,10 +7022,10 @@
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -7071,7 +7042,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -7080,7 +7051,7 @@
         <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -7097,7 +7068,7 @@
         <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -7106,7 +7077,7 @@
         <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -7132,7 +7103,7 @@
         <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -7143,10 +7114,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -7155,10 +7126,10 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" t="s">
         <v>433</v>
-      </c>
-      <c r="G6" t="s">
-        <v>434</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -7169,13 +7140,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -7184,7 +7155,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -7195,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -7207,7 +7178,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7256,7 +7227,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -7293,16 +7264,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" t="s">
         <v>365</v>
-      </c>
-      <c r="G3" t="s">
-        <v>366</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -7319,7 +7290,7 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -7342,7 +7313,7 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -7351,7 +7322,7 @@
         <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -7368,7 +7339,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -7377,7 +7348,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -7388,10 +7359,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" t="s">
         <v>423</v>
-      </c>
-      <c r="C7" t="s">
-        <v>424</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -7400,10 +7371,10 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" t="s">
         <v>425</v>
-      </c>
-      <c r="G7" t="s">
-        <v>426</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -7414,10 +7385,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -7426,10 +7397,10 @@
         <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" t="s">
         <v>437</v>
-      </c>
-      <c r="G8" t="s">
-        <v>438</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -7440,10 +7411,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -7452,7 +7423,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -7463,7 +7434,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -7475,7 +7446,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -7486,7 +7457,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C11" t="s">
         <v>102</v>
@@ -7498,7 +7469,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -7509,7 +7480,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -7521,10 +7492,10 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H12">
         <v>7</v>
@@ -7575,7 +7546,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -7598,7 +7569,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -7615,16 +7586,16 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -7635,19 +7606,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>146</v>
       </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -7658,10 +7629,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -7670,7 +7641,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -7681,10 +7652,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -7693,10 +7664,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -7748,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
@@ -7756,10 +7727,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -7768,10 +7739,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -7782,22 +7753,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
         <v>487</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>488</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G3" t="s">
-        <v>490</v>
       </c>
       <c r="H3">
         <v>6</v>

--- a/data/DATA.xlsx
+++ b/data/DATA.xlsx
@@ -22,23 +22,25 @@
     <sheet state="visible" name="2010" sheetId="17" r:id="rId20"/>
     <sheet state="visible" name="2009" sheetId="18" r:id="rId21"/>
     <sheet state="visible" name="2008" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="NO" sheetId="20" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'2024'!$A$1:$G$1</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'2023'!$A$1:$H$1</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'2022'!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">NO!$A$1:$Z$75</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId23" roundtripDataChecksum="pflZ99TZPlmsuTqvGVK/9pB4s4lYzTSoVYr64LlbcmI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataChecksum="s0K4lRMRAblYP6LqK4oPqbxIN2s93dkLApUSPKAZce0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="844">
   <si>
     <t>id</t>
   </si>
@@ -537,12 +539,15 @@
     <t>Minh</t>
   </si>
   <si>
-    <t>Đặng Ngọc Khánh Linh</t>
+    <t>Đặng Thị Khánh Linh</t>
   </si>
   <si>
     <t>Linh</t>
   </si>
   <si>
+    <t>./images/2024/DANG_THI_KHANH_LINH.jpg</t>
+  </si>
+  <si>
     <t>Lê Thị Băng Nhi</t>
   </si>
   <si>
@@ -636,6 +641,12 @@
     <t>Ngô Vũ Vân Châu</t>
   </si>
   <si>
+    <t>Quảng Ngọc</t>
+  </si>
+  <si>
+    <t>./images/2024/NGO_VU_VAN_CHAU.jpg</t>
+  </si>
+  <si>
     <t>Lê Thị Kim Anh (Ka)</t>
   </si>
   <si>
@@ -663,6 +674,12 @@
     <t>Đỗ Anh Kiệt</t>
   </si>
   <si>
+    <t>Nhuận Minh</t>
+  </si>
+  <si>
+    <t>./images/2024/DO_ANH_KIET.jpg</t>
+  </si>
+  <si>
     <t>Lê Thị Hồng Hạnh</t>
   </si>
   <si>
@@ -696,7 +713,10 @@
     <t>./images/2024/NGUYEN_THI_THU_HONG.jpg</t>
   </si>
   <si>
-    <t>Huỳnh Thị Thu Phương</t>
+    <t>Huỳnh Thị Thu Phương (Pủm)</t>
+  </si>
+  <si>
+    <t>./images/2024/HUYNH_THI_THU_PHUONG.jpg</t>
   </si>
   <si>
     <t>Nguyễn Thị Uyên Thi</t>
@@ -705,10 +725,22 @@
     <t>Đang học ở Đài Loan</t>
   </si>
   <si>
+    <t>./images/2024/NGUYEN_THI_UYEN_THI.jpg</t>
+  </si>
+  <si>
     <t>Trần Phước Thanh Thanh</t>
   </si>
   <si>
-    <t>Văn Thị Hồng My</t>
+    <t>Nhuận Phước</t>
+  </si>
+  <si>
+    <t>./images/2024/TRAN_PHUOC_THANH_THANH.jpg</t>
+  </si>
+  <si>
+    <t>Võ Thị Hồng My</t>
+  </si>
+  <si>
+    <t>./images/2024/VO_THI_HONG_MY.jpg</t>
   </si>
   <si>
     <t>Huỳnh Thị Huê</t>
@@ -724,13 +756,22 @@
 </t>
   </si>
   <si>
-    <t>Trần Thiện Doanh</t>
+    <t>Trần Thiện Doanh (Sị)</t>
   </si>
   <si>
     <t>Doanh</t>
   </si>
   <si>
+    <t>./images/2024/TRAN_THIEN_DOANH.jpg</t>
+  </si>
+  <si>
     <t>Nguyễn Tấn Nhật Huy</t>
+  </si>
+  <si>
+    <t>Quảng Đức</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_TAN_NHAT_HUY.jpg</t>
   </si>
   <si>
     <t>Châu Bảo Anh (May)</t>
@@ -743,12 +784,18 @@
 </t>
   </si>
   <si>
-    <t>Trần Hoàng Thanh Hải</t>
+    <t>Trần Hoàng Thanh Hải (Su)</t>
   </si>
   <si>
     <t>Hải</t>
   </si>
   <si>
+    <t>Biển Trần</t>
+  </si>
+  <si>
+    <t>./images/2024/TRAN_HOANG_THANH_HAI.jpg</t>
+  </si>
+  <si>
     <t>Trương Ngọc Hiếu An (Đậu)</t>
   </si>
   <si>
@@ -806,12 +853,18 @@
     <t>Cúc</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Đức</t>
+    <t>Nguyễn Hoàng Đức (Nyuwi)</t>
   </si>
   <si>
     <t>Đức</t>
   </si>
   <si>
+    <t>Nhuận Thường</t>
+  </si>
+  <si>
+    <t>./images/2024/NGUYEN_HOANG_DUC.jpg</t>
+  </si>
+  <si>
     <t>Nguyễn Quốc Việt</t>
   </si>
   <si>
@@ -929,6 +982,15 @@
     <t>./images/2024/DINH_THI_HIEU_THAO.jpg</t>
   </si>
   <si>
+    <t>Huỳnh Thị Kim Ánh</t>
+  </si>
+  <si>
+    <t>./images/2024/HUYNH_THI_KIM_ANH.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Phước Hải Anh</t>
+  </si>
+  <si>
     <t>Đặng Hoàng Mỹ Chân</t>
   </si>
   <si>
@@ -1007,12 +1069,18 @@
     <t>Hậu cần khó - có chị Ái</t>
   </si>
   <si>
+    <t>./images/2023/HOANG_THI_DIEU_AI.jpg</t>
+  </si>
+  <si>
     <t>Phạm Hoàng Anh</t>
   </si>
   <si>
     <t>Hoàng Anh</t>
   </si>
   <si>
+    <t>./images/2023/PHAM_HOANG_ANH.jpg</t>
+  </si>
+  <si>
     <t>Nguyễn Ngọc Kỳ Duyên</t>
   </si>
   <si>
@@ -1211,9 +1279,15 @@
     <t>Nhuận Từ</t>
   </si>
   <si>
+    <t>./images/2023/LE_VAN_NHAT_VAN.jpg</t>
+  </si>
+  <si>
     <t>Đỗ Thị Thu Thảo</t>
   </si>
   <si>
+    <t>./images/2023/DO_THI_THU_THAO.jpg</t>
+  </si>
+  <si>
     <t>Nguyễn Thành Tâm</t>
   </si>
   <si>
@@ -1340,6 +1414,9 @@
     <t>Ly</t>
   </si>
   <si>
+    <t>./images/2023/TRAN_THI_LY.jpg</t>
+  </si>
+  <si>
     <t>Trương Nguyễn Bảo Trân</t>
   </si>
   <si>
@@ -1349,6 +1426,39 @@
     <t>Trung Bảo</t>
   </si>
   <si>
+    <t>Hoàng Trần Bảo Anh</t>
+  </si>
+  <si>
+    <t>Huỳnh Công Nhật Quang</t>
+  </si>
+  <si>
+    <t>Quảng Trí</t>
+  </si>
+  <si>
+    <t>Tống Thị Mỹ Nhi</t>
+  </si>
+  <si>
+    <t>./images/2023/TONG_MY_NHI.jpg</t>
+  </si>
+  <si>
+    <t>Trương Huyên Chương</t>
+  </si>
+  <si>
+    <t>Chương</t>
+  </si>
+  <si>
+    <t>Nhuận Pháp</t>
+  </si>
+  <si>
+    <t>./images/2023/TRUONG_HUYEN_CHUONG.jpg</t>
+  </si>
+  <si>
+    <t>Phạm Trương Bảo Hoàng (Kem)</t>
+  </si>
+  <si>
+    <t>./images/2023/PHAM_TRUONG_BAO_HOANG.jpg</t>
+  </si>
+  <si>
     <t>Phan Thị Phương Anh (Sô)</t>
   </si>
   <si>
@@ -1832,6 +1942,18 @@
     <t>./images/2019/NGUYEN_KINH_NGHIA.jpg</t>
   </si>
   <si>
+    <t>Lê Đình Hùng</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Trưởng ban truyền thông 2022</t>
+  </si>
+  <si>
+    <t>Nhuận Tâm</t>
+  </si>
+  <si>
     <t>Phan Vũ Phúc Dương (Hím em)</t>
   </si>
   <si>
@@ -1862,6 +1984,33 @@
     <t>Nhuận Phúc</t>
   </si>
   <si>
+    <t>Nguyễn Lê Hồng Ngọc (Nơ🌝)</t>
+  </si>
+  <si>
+    <t>Quảng Châu</t>
+  </si>
+  <si>
+    <t>./images/2018/NGUYEN_LE_HONG_NGOC.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Phương (Bơ nhỏ)</t>
+  </si>
+  <si>
+    <t>Quảng Mỹ</t>
+  </si>
+  <si>
+    <t>./images/2018/NGUYEN_THI_THANH_PHUONG.jpg</t>
+  </si>
+  <si>
+    <t>Ngô Thị Băng Châu (Bắp)</t>
+  </si>
+  <si>
+    <t>Nhuận Thảo</t>
+  </si>
+  <si>
+    <t>./images/2018/NGO_THI_BANG_CHAU.jpg</t>
+  </si>
+  <si>
     <t>Lê Đức Duy</t>
   </si>
   <si>
@@ -1919,6 +2068,9 @@
     <t>Cu em</t>
   </si>
   <si>
+    <t>./images/2017/PHAN_DINH_THANH_NHAN.jpg</t>
+  </si>
+  <si>
     <t>Trần Văn Quốc (Bi)</t>
   </si>
   <si>
@@ -1938,6 +2090,21 @@
   </si>
   <si>
     <t>./images/2017/NGUYEN_DANG_HOANG_PHUC.jpg</t>
+  </si>
+  <si>
+    <t>Đặng Thanh Hương (Na)</t>
+  </si>
+  <si>
+    <t>Hươ</t>
+  </si>
+  <si>
+    <t>Ban cố vấn</t>
+  </si>
+  <si>
+    <t>🍈</t>
+  </si>
+  <si>
+    <t>./images/2017/DANG_THANH_HUONG.jpg</t>
   </si>
   <si>
     <t>Trần Thị Lành (Xíu)</t>
@@ -1998,6 +2165,12 @@
     <t>Quảng Hạnh</t>
   </si>
   <si>
+    <t>Lê Linh Đa</t>
+  </si>
+  <si>
+    <t>Đa</t>
+  </si>
+  <si>
     <t>Trương Minh Ý (Ý Râu)</t>
   </si>
   <si>
@@ -2028,12 +2201,12 @@
     <t>Chị Bơ</t>
   </si>
   <si>
+    <t>./images/2012/TRUONG_THI_PHUONG_ANH.jpg</t>
+  </si>
+  <si>
     <t>Lê Thị Bích Tiên</t>
   </si>
   <si>
-    <t>Ban cố vấn</t>
-  </si>
-  <si>
     <t>Giọng to nhất Chánh Tâm</t>
   </si>
   <si>
@@ -2043,9 +2216,6 @@
     <t>Tống Văn Hùng</t>
   </si>
   <si>
-    <t>Hùng</t>
-  </si>
-  <si>
     <t>Hùng hóm hỉnh</t>
   </si>
   <si>
@@ -2092,6 +2262,321 @@
   </si>
   <si>
     <t>full_name 2010</t>
+  </si>
+  <si>
+    <t>Châu Liên Phương</t>
+  </si>
+  <si>
+    <t>👱‍♀️</t>
+  </si>
+  <si>
+    <t>Bô lão</t>
+  </si>
+  <si>
+    <t>Mẹ Chánh Tâm</t>
+  </si>
+  <si>
+    <t>./images/NO/CHAU_LIEN_PHUONG.jpg</t>
+  </si>
+  <si>
+    <t>Hà Thị Thu</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Xuân Vân</t>
+  </si>
+  <si>
+    <t>./images/NO/HOANG_THI_XUAN_VAN.jpg</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Kim Anh</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Kim Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Tài</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Ngân (Mắm)</t>
+  </si>
+  <si>
+    <t>./images/NO/LE_THI_HUYEN_NGAN.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Khánh Toàn</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>./images/NO/NGUYEN_HUU_KHANH_TOAN.jpg</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>Lớp trưởng cũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Mỹ Vân</t>
+  </si>
+  <si>
+    <t>Bùi Văn Luyến</t>
+  </si>
+  <si>
+    <t>Luyến</t>
+  </si>
+  <si>
+    <t>Ba Ba</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Chế Quang Sang</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>Nhuận Trọng</t>
+  </si>
+  <si>
+    <t>Dương Công Thương</t>
+  </si>
+  <si>
+    <t>Thương</t>
+  </si>
+  <si>
+    <t>Đặng Thị Xuân Nhàn</t>
+  </si>
+  <si>
+    <t>Điểu Thị Thu Uyên</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Dũng</t>
+  </si>
+  <si>
+    <t>Đỗ Huy</t>
+  </si>
+  <si>
+    <t>Đỗ Huỳnh Như</t>
+  </si>
+  <si>
+    <t>Hà Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Nhật Linh</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Hương</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Khánh Băng</t>
+  </si>
+  <si>
+    <t>Băng</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Huyền Tôn Nữ Tịnh An</t>
+  </si>
+  <si>
+    <t>Huỳnh Kim Hưng</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Mỹ Lệ</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Quỳnh Thi</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Xuân Lài</t>
+  </si>
+  <si>
+    <t>Lài</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>La Thị Thủy Tiên</t>
+  </si>
+  <si>
+    <t>Lê Đình Anh Kiệt</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Mỹ</t>
+  </si>
+  <si>
+    <t>Lê Kim Mẫn</t>
+  </si>
+  <si>
+    <t>Mẫn</t>
+  </si>
+  <si>
+    <t>Lê Quang Minh</t>
+  </si>
+  <si>
+    <t>Lê Thanh Long</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lê Thế An</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Thanh</t>
+  </si>
+  <si>
+    <t>Lê Thị Liên</t>
+  </si>
+  <si>
+    <t>Liên</t>
+  </si>
+  <si>
+    <t>Lê Thị Phong Nho</t>
+  </si>
+  <si>
+    <t>Nho</t>
+  </si>
+  <si>
+    <t>Lê Thị Thúy Trinh</t>
+  </si>
+  <si>
+    <t>Lê Thị Tố Hảo</t>
+  </si>
+  <si>
+    <t>Hảo</t>
+  </si>
+  <si>
+    <t>Linh Chiêu</t>
+  </si>
+  <si>
+    <t>Chiêu</t>
+  </si>
+  <si>
+    <t>Lý Thị Hồng Hà</t>
+  </si>
+  <si>
+    <t>Mai Khắc Bá</t>
+  </si>
+  <si>
+    <t>Bá</t>
+  </si>
+  <si>
+    <t>Mai Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Mai Xuân Hoàng</t>
+  </si>
+  <si>
+    <t>Ngô Bảo Long</t>
+  </si>
+  <si>
+    <t>Ngô Nghĩa Đức</t>
+  </si>
+  <si>
+    <t>Ngô Thị Minh Huệ</t>
+  </si>
+  <si>
+    <t>Huệ</t>
+  </si>
+  <si>
+    <t>Ngô Văn Quyền</t>
+  </si>
+  <si>
+    <t>Quyền</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Sen</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Nguyễn Châu Bảo Nhi</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Anh Bửu</t>
+  </si>
+  <si>
+    <t>Bửu</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Tài</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Trung Tiến</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Quân</t>
+  </si>
+  <si>
+    <t>Nguyễn Hứu Uyên Nguyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Long Nhật</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thắng</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Bảo Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Quý Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Tâm Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo Uyên (Xanh rêu)</t>
+  </si>
+  <si>
+    <t>Quảng Thông</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ánh Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Thương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Đông</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Hà</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2615,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2144,6 +2629,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2198,6 +2689,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3527,10 +4022,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -3539,10 +4034,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="H2" s="1">
         <v>5.0</v>
@@ -3553,22 +4048,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="H3" s="1">
         <v>3.0</v>
@@ -3579,10 +4074,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -3591,10 +4086,10 @@
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
       <c r="H4" s="1">
         <v>5.0</v>
@@ -3605,22 +4100,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>621</v>
+        <v>670</v>
       </c>
       <c r="H5" s="1">
         <v>3.0</v>
@@ -3631,19 +4126,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>624</v>
+        <v>673</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="H6" s="1">
         <v>6.0</v>
@@ -3654,10 +4152,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -3666,10 +4164,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
       <c r="H7" s="1">
         <v>6.0</v>
@@ -3680,28 +4178,53 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="H8" s="2">
         <v>7.0</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -4749,22 +5272,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>632</v>
+        <v>687</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="H2" s="1">
         <v>5.0</v>
@@ -5822,22 +6345,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="H2" s="1">
         <v>5.0</v>
@@ -5848,10 +6371,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -5860,10 +6383,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="H3" s="2">
         <v>6.0</v>
@@ -6920,22 +7443,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="H2" s="5">
         <v>5.0</v>
@@ -7993,25 +8516,47 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>648</v>
+        <v>703</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1"/>
+        <v>705</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -9066,7 +9611,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>145</v>
@@ -9075,13 +9620,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>653</v>
+        <v>710</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>654</v>
+        <v>711</v>
       </c>
       <c r="H2" s="2">
         <v>5.0</v>
@@ -9092,22 +9637,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>655</v>
+        <v>712</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
       <c r="H3" s="2">
         <v>5.0</v>
@@ -9118,7 +9663,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>659</v>
+        <v>716</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -9130,7 +9675,10 @@
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>660</v>
+        <v>717</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="H4" s="2">
         <v>5.0</v>
@@ -9141,22 +9689,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>661</v>
+        <v>719</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
       <c r="H5" s="2">
         <v>5.0</v>
@@ -10213,22 +10761,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="H2" s="2">
         <v>6.0</v>
@@ -10239,22 +10787,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>671</v>
+        <v>727</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
       <c r="H3" s="2">
         <v>5.0</v>
@@ -10265,22 +10813,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>675</v>
+        <v>731</v>
       </c>
       <c r="H4" s="2">
         <v>5.0</v>
@@ -10291,7 +10839,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>676</v>
+        <v>732</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
@@ -10303,10 +10851,10 @@
         <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>677</v>
+        <v>733</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>678</v>
+        <v>734</v>
       </c>
       <c r="H5" s="1">
         <v>6.0</v>
@@ -10317,10 +10865,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>679</v>
+        <v>735</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -10329,10 +10877,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>680</v>
+        <v>736</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>681</v>
+        <v>737</v>
       </c>
       <c r="H6" s="2">
         <v>6.0</v>
@@ -11358,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>682</v>
+        <v>738</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -15854,6 +16402,1771 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="22.44"/>
+    <col customWidth="1" min="7" max="7" width="29.22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H71" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>71.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H75" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$Z$75">
+    <sortState ref="A1:Z75">
+      <sortCondition ref="D1:D75"/>
+    </sortState>
+  </autoFilter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -16746,20 +19059,23 @@
       <c r="A36" s="1">
         <v>34.0</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>122</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="H36" s="2">
         <v>8.0</v>
@@ -16770,7 +19086,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>90</v>
@@ -16793,7 +19109,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>58</v>
@@ -16816,10 +19132,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
@@ -16839,7 +19155,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>71</v>
@@ -16862,10 +19178,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>10</v>
@@ -16885,10 +19201,10 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>10</v>
@@ -16908,7 +19224,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>138</v>
@@ -16931,10 +19247,10 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
@@ -16954,7 +19270,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>75</v>
@@ -16977,10 +19293,10 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>10</v>
@@ -17000,10 +19316,10 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
@@ -17012,10 +19328,10 @@
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H47" s="2">
         <v>6.0</v>
@@ -17026,7 +19342,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>79</v>
@@ -17038,10 +19354,10 @@
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H48" s="2">
         <v>7.0</v>
@@ -17052,10 +19368,10 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
@@ -17064,10 +19380,10 @@
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H49" s="2">
         <v>6.0</v>
@@ -17078,10 +19394,10 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>10</v>
@@ -17090,10 +19406,10 @@
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H50" s="2">
         <v>7.0</v>
@@ -17104,7 +19420,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
@@ -17115,8 +19431,11 @@
       <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>122</v>
+      <c r="F51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="H51" s="2">
         <v>7.0</v>
@@ -17127,7 +19446,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>62</v>
@@ -17139,10 +19458,10 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H52" s="2">
         <v>8.0</v>
@@ -17153,10 +19472,10 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -17176,10 +19495,10 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
@@ -17199,7 +19518,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>166</v>
@@ -17222,10 +19541,10 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
@@ -17233,8 +19552,11 @@
       <c r="E56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>122</v>
+      <c r="F56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H56" s="2">
         <v>8.0</v>
@@ -17245,10 +19567,10 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
@@ -17268,7 +19590,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>58</v>
@@ -17280,10 +19602,10 @@
         <v>39</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H58" s="2">
         <v>8.0</v>
@@ -17294,7 +19616,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>128</v>
@@ -17306,10 +19628,10 @@
         <v>39</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H59" s="2">
         <v>7.0</v>
@@ -17320,10 +19642,10 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>10</v>
@@ -17335,7 +19657,7 @@
         <v>122</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H60" s="2">
         <v>8.0</v>
@@ -17345,8 +19667,8 @@
       <c r="A61" s="1">
         <v>59.0</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>218</v>
+      <c r="B61" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>128</v>
@@ -17359,6 +19681,9 @@
       </c>
       <c r="F61" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="H61" s="2">
         <v>8.0</v>
@@ -17369,10 +19694,10 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
@@ -17381,7 +19706,10 @@
         <v>39</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="H62" s="2">
         <v>8.0</v>
@@ -17392,7 +19720,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>25</v>
@@ -17403,8 +19731,11 @@
       <c r="E63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>122</v>
+      <c r="F63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="H63" s="2">
         <v>8.0</v>
@@ -17414,8 +19745,8 @@
       <c r="A64" s="1">
         <v>62.0</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>222</v>
+      <c r="B64" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>30</v>
@@ -17428,6 +19759,9 @@
       </c>
       <c r="F64" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="H64" s="2">
         <v>8.0</v>
@@ -17438,10 +19772,10 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>10</v>
@@ -17450,10 +19784,10 @@
         <v>39</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H65" s="2">
         <v>7.0</v>
@@ -17463,11 +19797,11 @@
       <c r="A66" s="1">
         <v>64.0</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>227</v>
+      <c r="B66" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>10</v>
@@ -17477,6 +19811,9 @@
       </c>
       <c r="F66" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="H66" s="2">
         <v>8.0</v>
@@ -17487,7 +19824,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>143</v>
@@ -17498,8 +19835,11 @@
       <c r="E67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>122</v>
+      <c r="F67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="H67" s="2">
         <v>8.0</v>
@@ -17510,7 +19850,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>62</v>
@@ -17522,10 +19862,10 @@
         <v>39</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H68" s="2">
         <v>8.0</v>
@@ -17535,11 +19875,11 @@
       <c r="A69" s="1">
         <v>67.0</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>233</v>
+      <c r="B69" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>10</v>
@@ -17547,8 +19887,11 @@
       <c r="E69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>122</v>
+      <c r="F69" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="H69" s="2">
         <v>7.0</v>
@@ -17559,7 +19902,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
@@ -17571,10 +19914,10 @@
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H70" s="2">
         <v>6.0</v>
@@ -17585,10 +19928,10 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>10</v>
@@ -17597,10 +19940,10 @@
         <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H71" s="2">
         <v>7.0</v>
@@ -17611,10 +19954,10 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>10</v>
@@ -17623,10 +19966,10 @@
         <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="H72" s="2">
         <v>7.0</v>
@@ -17637,10 +19980,10 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>10</v>
@@ -17649,10 +19992,10 @@
         <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="H73" s="2">
         <v>8.0</v>
@@ -17663,10 +20006,10 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>10</v>
@@ -17686,10 +20029,10 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>10</v>
@@ -17708,11 +20051,11 @@
       <c r="A76" s="1">
         <v>74.0</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>254</v>
+      <c r="B76" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>10</v>
@@ -17720,8 +20063,11 @@
       <c r="E76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>122</v>
+      <c r="F76" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="H76" s="2">
         <v>7.0</v>
@@ -17732,10 +20078,10 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>10</v>
@@ -17755,7 +20101,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>34</v>
@@ -17778,10 +20124,10 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>10</v>
@@ -17801,10 +20147,10 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>10</v>
@@ -17813,10 +20159,10 @@
         <v>21</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H80" s="2">
         <v>8.0</v>
@@ -17827,10 +20173,10 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>10</v>
@@ -17839,10 +20185,10 @@
         <v>21</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H81" s="2">
         <v>7.0</v>
@@ -17853,10 +20199,10 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>10</v>
@@ -17868,7 +20214,7 @@
         <v>122</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H82" s="2">
         <v>8.0</v>
@@ -17879,7 +20225,7 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>71</v>
@@ -17894,7 +20240,7 @@
         <v>122</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H83" s="2">
         <v>8.0</v>
@@ -17905,13 +20251,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>11</v>
@@ -17920,7 +20266,7 @@
         <v>122</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H84" s="2">
         <v>4.0</v>
@@ -17931,10 +20277,10 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>10</v>
@@ -17943,10 +20289,10 @@
         <v>52</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H85" s="2">
         <v>7.0</v>
@@ -17957,10 +20303,10 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>10</v>
@@ -17969,10 +20315,10 @@
         <v>52</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="H86" s="2">
         <v>8.0</v>
@@ -17983,10 +20329,10 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>10</v>
@@ -17995,10 +20341,10 @@
         <v>26</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="H87" s="2">
         <v>7.0</v>
@@ -18009,7 +20355,7 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>90</v>
@@ -18021,10 +20367,10 @@
         <v>21</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H88" s="2">
         <v>8.0</v>
@@ -18035,7 +20381,7 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>71</v>
@@ -18047,17 +20393,64 @@
         <v>16</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="H89" s="2">
         <v>8.0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H90" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H91" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
     <row r="92" ht="15.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>
@@ -19034,10 +21427,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>67</v>
@@ -19046,10 +21439,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="H2" s="1">
         <v>4.0</v>
@@ -19060,10 +21453,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>67</v>
@@ -19072,10 +21465,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="H3" s="1">
         <v>4.0</v>
@@ -19086,10 +21479,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>67</v>
@@ -19098,10 +21491,10 @@
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="H4" s="1">
         <v>4.0</v>
@@ -19112,10 +21505,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -19124,10 +21517,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="H5" s="1">
         <v>4.0</v>
@@ -19138,10 +21531,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -19150,10 +21543,10 @@
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1">
         <v>4.0</v>
@@ -19164,7 +21557,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -19176,10 +21569,10 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H7" s="2">
         <v>4.0</v>
@@ -19190,19 +21583,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="H8" s="1">
         <v>5.0</v>
@@ -19213,19 +21609,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>322</v>
+        <v>343</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="H9" s="1">
         <v>5.0</v>
@@ -19236,22 +21635,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="H10" s="1">
         <v>5.0</v>
@@ -19262,7 +21661,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>62</v>
@@ -19274,10 +21673,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="H11" s="2">
         <v>6.0</v>
@@ -19288,7 +21687,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>58</v>
@@ -19300,10 +21699,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="H12" s="2">
         <v>6.0</v>
@@ -19314,10 +21713,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -19326,10 +21725,10 @@
         <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="H13" s="2">
         <v>6.0</v>
@@ -19340,10 +21739,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -19352,10 +21751,10 @@
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="H14" s="2">
         <v>6.0</v>
@@ -19366,10 +21765,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -19378,10 +21777,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="H15" s="2">
         <v>6.0</v>
@@ -19392,7 +21791,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>147</v>
@@ -19404,10 +21803,10 @@
         <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="H16" s="2">
         <v>6.0</v>
@@ -19418,10 +21817,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -19430,10 +21829,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H17" s="2">
         <v>6.0</v>
@@ -19444,7 +21843,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>145</v>
@@ -19456,10 +21855,10 @@
         <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="H18" s="2">
         <v>6.0</v>
@@ -19470,10 +21869,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -19482,10 +21881,10 @@
         <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="H19" s="1">
         <v>6.0</v>
@@ -19496,7 +21895,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>143</v>
@@ -19508,7 +21907,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="H20" s="1">
         <v>7.0</v>
@@ -19519,10 +21918,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -19534,7 +21933,7 @@
         <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H21" s="1">
         <v>7.0</v>
@@ -19545,10 +21944,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -19560,7 +21959,7 @@
         <v>56</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="H22" s="1">
         <v>7.0</v>
@@ -19571,10 +21970,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -19583,10 +21982,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H23" s="1">
         <v>7.0</v>
@@ -19597,10 +21996,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -19609,10 +22008,10 @@
         <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="H24" s="1">
         <v>6.0</v>
@@ -19623,10 +22022,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
@@ -19635,10 +22034,10 @@
         <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="H25" s="1">
         <v>7.0</v>
@@ -19649,22 +22048,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="H26" s="1">
         <v>4.0</v>
@@ -19675,10 +22074,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -19687,10 +22086,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="H27" s="1">
         <v>7.0</v>
@@ -19701,10 +22100,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -19716,7 +22115,7 @@
         <v>122</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="H28" s="1">
         <v>6.0</v>
@@ -19727,10 +22126,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -19739,7 +22138,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>388</v>
+        <v>410</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="H29" s="2">
         <v>6.0</v>
@@ -19750,7 +22152,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>71</v>
@@ -19763,6 +22165,9 @@
       </c>
       <c r="F30" s="2" t="s">
         <v>122</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="H30" s="2">
         <v>6.0</v>
@@ -19773,10 +22178,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
@@ -19788,7 +22193,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="H31" s="2">
         <v>7.0</v>
@@ -19799,10 +22204,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -19811,10 +22216,10 @@
         <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="H32" s="2">
         <v>7.0</v>
@@ -19825,10 +22230,10 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
@@ -19837,10 +22242,10 @@
         <v>26</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="H33" s="2">
         <v>8.0</v>
@@ -19851,7 +22256,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>164</v>
@@ -19863,10 +22268,10 @@
         <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="H34" s="2">
         <v>8.0</v>
@@ -19877,10 +22282,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
@@ -19889,10 +22294,10 @@
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="H35" s="2">
         <v>8.0</v>
@@ -19903,10 +22308,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>10</v>
@@ -19915,10 +22320,10 @@
         <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="H36" s="2">
         <v>7.0</v>
@@ -19929,10 +22334,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
@@ -19941,10 +22346,10 @@
         <v>52</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="H37" s="2">
         <v>6.0</v>
@@ -19955,10 +22360,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
@@ -19967,7 +22372,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="H38" s="2">
         <v>8.0</v>
@@ -19978,10 +22383,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
@@ -19990,10 +22395,10 @@
         <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="H39" s="2">
         <v>8.0</v>
@@ -20004,7 +22409,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>71</v>
@@ -20016,10 +22421,10 @@
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="H40" s="2">
         <v>8.0</v>
@@ -20030,10 +22435,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
@@ -20042,10 +22447,10 @@
         <v>26</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="H41" s="2">
         <v>8.0</v>
@@ -20056,7 +22461,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>166</v>
@@ -20071,7 +22476,7 @@
         <v>122</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="H42" s="2">
         <v>8.0</v>
@@ -20082,10 +22487,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
@@ -20095,6 +22500,9 @@
       </c>
       <c r="F43" s="2" t="s">
         <v>122</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="H43" s="2">
         <v>8.0</v>
@@ -20105,7 +22513,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>43</v>
@@ -20128,7 +22536,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>43</v>
@@ -20140,17 +22548,136 @@
         <v>16</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="H45" s="2">
         <v>6.0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H47" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H48" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H49" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H50" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
@@ -21100,7 +23627,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$H$1">
     <sortState ref="A1:H1">
@@ -21168,22 +23694,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="H2" s="2">
         <v>5.0</v>
@@ -21194,10 +23720,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>67</v>
@@ -21206,10 +23732,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="H3" s="1">
         <v>4.0</v>
@@ -21220,7 +23746,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
@@ -21232,10 +23758,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="H4" s="1">
         <v>4.0</v>
@@ -21246,10 +23772,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -21258,10 +23784,10 @@
         <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="H5" s="1">
         <v>4.0</v>
@@ -21272,22 +23798,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="H6" s="2">
         <v>5.0</v>
@@ -21298,22 +23824,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="H7" s="1">
         <v>5.0</v>
@@ -21324,22 +23850,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="H8" s="1">
         <v>5.0</v>
@@ -21350,22 +23876,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="H9" s="2">
         <v>6.0</v>
@@ -21376,10 +23902,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -21388,10 +23914,10 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="H10" s="2">
         <v>7.0</v>
@@ -21402,10 +23928,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -21414,10 +23940,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="H11" s="2">
         <v>6.0</v>
@@ -21428,22 +23954,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="H12" s="2">
         <v>4.0</v>
@@ -21454,22 +23980,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="H13" s="1">
         <v>4.0</v>
@@ -21480,7 +24006,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>79</v>
@@ -21503,10 +24029,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -21515,10 +24041,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="H15" s="1">
         <v>7.0</v>
@@ -21529,10 +24055,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -21541,10 +24067,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="H16" s="1">
         <v>7.0</v>
@@ -21555,10 +24081,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -21570,7 +24096,7 @@
         <v>122</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="H17" s="1">
         <v>8.0</v>
@@ -21581,10 +24107,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -21593,10 +24119,10 @@
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="H18" s="2">
         <v>8.0</v>
@@ -21607,10 +24133,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -21619,10 +24145,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="H19" s="2">
         <v>7.0</v>
@@ -21633,22 +24159,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="H20" s="2">
         <v>6.0</v>
@@ -21659,10 +24185,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -21674,7 +24200,7 @@
         <v>122</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="H21" s="2">
         <v>7.0</v>
@@ -21685,10 +24211,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -21708,10 +24234,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -21723,7 +24249,7 @@
         <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="H23" s="2">
         <v>6.0</v>
@@ -21734,10 +24260,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -21746,7 +24272,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="H24" s="2">
         <v>7.0</v>
@@ -21757,7 +24283,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
@@ -21772,7 +24298,7 @@
         <v>122</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="H25" s="2">
         <v>6.0</v>
@@ -21783,10 +24309,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
@@ -21795,10 +24321,10 @@
         <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="H26" s="2">
         <v>7.0</v>
@@ -21809,10 +24335,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -21824,7 +24350,7 @@
         <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="H27" s="2">
         <v>7.0</v>
@@ -21835,7 +24361,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>166</v>
@@ -21847,10 +24373,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="H28" s="2">
         <v>6.0</v>
@@ -22892,10 +25418,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -22904,10 +25430,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="H2" s="2">
         <v>6.0</v>
@@ -22918,22 +25444,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="H3" s="1">
         <v>5.0</v>
@@ -22944,22 +25470,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="H4" s="1">
         <v>5.0</v>
@@ -22970,10 +25496,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -22982,10 +25508,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="H5" s="1">
         <v>4.0</v>
@@ -22996,22 +25522,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="H6" s="1">
         <v>5.0</v>
@@ -23022,22 +25548,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="H7" s="1">
         <v>5.0</v>
@@ -23048,7 +25574,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>79</v>
@@ -23071,19 +25597,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>545</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>581</v>
       </c>
       <c r="H9" s="2">
         <v>6.0</v>
@@ -23094,7 +25620,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>79</v>
@@ -24161,22 +26687,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="H2" s="1">
         <v>3.0</v>
@@ -24187,22 +26713,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="H3" s="1">
         <v>5.0</v>
@@ -24213,19 +26739,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="H4" s="1">
         <v>5.0</v>
@@ -24236,22 +26762,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="H5" s="1">
         <v>5.0</v>
@@ -24262,22 +26788,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="H6" s="1">
         <v>5.0</v>
@@ -24288,10 +26814,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -24300,10 +26826,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="H7" s="2">
         <v>6.0</v>
@@ -24314,10 +26840,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -24337,10 +26863,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -24349,7 +26875,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="H9" s="1">
         <v>7.0</v>
@@ -24360,10 +26886,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -24383,7 +26909,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>62</v>
@@ -24395,10 +26921,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="H11" s="1">
         <v>7.0</v>
@@ -24409,7 +26935,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>62</v>
@@ -24421,10 +26947,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="H12" s="2">
         <v>7.0</v>
@@ -25476,22 +28002,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="H2" s="1">
         <v>4.0</v>
@@ -25502,22 +28028,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="H3" s="1">
         <v>5.0</v>
@@ -25528,19 +28054,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="H4" s="1">
         <v>5.0</v>
@@ -25551,10 +28077,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -25574,10 +28100,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -25586,10 +28112,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="H6" s="1">
         <v>7.0</v>
@@ -25600,10 +28126,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -25612,16 +28138,35 @@
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="H7" s="2">
         <v>6.0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -26673,10 +29218,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -26685,10 +29230,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="H2" s="1">
         <v>6.0</v>
@@ -26699,22 +29244,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="H3" s="1">
         <v>6.0</v>
@@ -26725,10 +29270,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -26737,15 +29282,90 @@
         <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="H4" s="2">
         <v>8.0</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
